--- a/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.71822770005334</v>
+        <v>17.71822770005335</v>
       </c>
       <c r="C2">
-        <v>11.50457780914999</v>
+        <v>11.50457780914996</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.55249969904768</v>
+        <v>12.55249969904772</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.77589738666384</v>
+        <v>34.77589738666387</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.49388032131771</v>
+        <v>15.49388032131772</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.70586744916071</v>
+        <v>16.70586744916079</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.44390937531675</v>
+        <v>16.44390937531677</v>
       </c>
       <c r="C3">
-        <v>10.72396107483081</v>
+        <v>10.7239610748309</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.80137448308582</v>
+        <v>11.80137448308581</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>33.04733462775702</v>
+        <v>33.04733462775697</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.42599113524674</v>
+        <v>14.42599113524675</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.53858352112516</v>
+        <v>15.53858352112522</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.62293251642567</v>
+        <v>15.62293251642571</v>
       </c>
       <c r="C4">
-        <v>10.22276120367562</v>
+        <v>10.22276120367549</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.33020201489852</v>
+        <v>11.33020201489858</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.97417151827165</v>
+        <v>31.97417151827178</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.73879801732429</v>
+        <v>13.73879801732434</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.27849182300112</v>
+        <v>15.27849182300125</v>
       </c>
       <c r="C5">
-        <v>10.01289617900203</v>
+        <v>10.01289617900187</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.13578087066328</v>
+        <v>11.13578087066335</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>31.5341069021763</v>
+        <v>31.53410690217627</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.45068660373922</v>
+        <v>13.45068660373928</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.47392252805381</v>
+        <v>14.47392252805383</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22069518742481</v>
+        <v>15.22069518742494</v>
       </c>
       <c r="C6">
-        <v>9.977705619965855</v>
+        <v>9.977705619965764</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.10335531019736</v>
+        <v>11.10335531019739</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>31.46087738277737</v>
+        <v>31.46087738277745</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.40235408053938</v>
+        <v>13.40235408053944</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.42119625043063</v>
+        <v>14.42119625043066</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.6183275443995</v>
+        <v>15.61832754439952</v>
       </c>
       <c r="C7">
-        <v>10.21995379532257</v>
+        <v>10.21995379532236</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>11.32758959754521</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>31.96824738447406</v>
+        <v>31.96824738447411</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.73494533021726</v>
+        <v>13.73494533021725</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.78408753925907</v>
+        <v>14.78408753925913</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.28671999248261</v>
+        <v>17.28671999248257</v>
       </c>
       <c r="C8">
-        <v>11.23989146754067</v>
+        <v>11.23989146754062</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.29562375178512</v>
+        <v>12.29562375178515</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>34.1824505812705</v>
+        <v>34.18245058127036</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.13211399914111</v>
+        <v>15.13211399914115</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.31024375440447</v>
+        <v>16.31024375440449</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.262251664305</v>
+        <v>20.26225166430497</v>
       </c>
       <c r="C9">
-        <v>13.07234469728336</v>
+        <v>13.07234469728338</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>14.11330396104916</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>38.42585526908073</v>
+        <v>38.42585526908076</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.62978056240508</v>
+        <v>17.62978056240507</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.04568091724679</v>
+        <v>19.04568091724677</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>22.28272668232491</v>
       </c>
       <c r="C10">
-        <v>14.32642234101644</v>
+        <v>14.32642234101646</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.49804426735665</v>
+        <v>15.49804426735663</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>41.48502301160134</v>
+        <v>41.48502301160146</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.91290689241981</v>
+        <v>20.91290689241983</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16975402021384</v>
+        <v>23.16975402021394</v>
       </c>
       <c r="C11">
-        <v>14.87959562336758</v>
+        <v>14.87959562336769</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.14315673909454</v>
+        <v>16.14315673909459</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>42.86685448369041</v>
+        <v>42.86685448369045</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.07677437501357</v>
+        <v>20.07677437501365</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.73519908928715</v>
+        <v>21.73519908928721</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.50140244427529</v>
+        <v>23.50140244427521</v>
       </c>
       <c r="C12">
-        <v>15.08684506429879</v>
+        <v>15.08684506429887</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.38504671286049</v>
+        <v>16.38504671286051</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>43.38911817562266</v>
+        <v>43.38911817562259</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.35628477806844</v>
+        <v>20.35628477806839</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.04305076287297</v>
+        <v>22.04305076287292</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.43015862983446</v>
+        <v>23.43015862983443</v>
       </c>
       <c r="C13">
-        <v>15.04230448969656</v>
+        <v>15.04230448969671</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.33305266441005</v>
+        <v>16.33305266441003</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.27667603974189</v>
+        <v>43.27667603974149</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.29623433499421</v>
+        <v>20.29623433499424</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.97690005839934</v>
+        <v>21.97690005839932</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19712182021673</v>
+        <v>23.19712182021671</v>
       </c>
       <c r="C14">
-        <v>14.89668909124617</v>
+        <v>14.89668909124619</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.1631033260237</v>
+        <v>16.16310332602372</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>42.9098387434527</v>
+        <v>42.90983874345266</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.05383837520442</v>
+        <v>23.05383837520453</v>
       </c>
       <c r="C15">
-        <v>14.80721422662661</v>
+        <v>14.80721422662649</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.05870190427782</v>
+        <v>16.05870190427784</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>42.68502384617545</v>
+        <v>42.68502384617543</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.97910059997069</v>
+        <v>19.97910059997071</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.62765326806105</v>
+        <v>21.62765326806107</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.22414161389076</v>
+        <v>22.22414161389083</v>
       </c>
       <c r="C16">
-        <v>14.2899444391822</v>
+        <v>14.28994443918226</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.45553085295069</v>
+        <v>15.45553085295073</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.39455098504633</v>
+        <v>41.39455098504641</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.28025984136067</v>
+        <v>19.28025984136072</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.85865261809961</v>
+        <v>20.85865261809966</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.70717347766656</v>
+        <v>21.70717347766664</v>
       </c>
       <c r="C17">
-        <v>13.96835723670059</v>
+        <v>13.96835723670054</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.08088437779158</v>
+        <v>15.0808843777916</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>40.60061859289393</v>
+        <v>40.60061859289377</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.8450779669332</v>
+        <v>18.84507796693318</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.38019445030242</v>
+        <v>20.38019445030244</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>21.40678132329053</v>
       </c>
       <c r="C18">
-        <v>13.78174113123232</v>
+        <v>13.78174113123231</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.86360301926389</v>
+        <v>14.86360301926391</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>40.14301458361171</v>
+        <v>40.14301458361173</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.59229803081143</v>
+        <v>18.59229803081144</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.30454025322167</v>
+        <v>21.30454025322161</v>
       </c>
       <c r="C19">
-        <v>13.71826574775675</v>
+        <v>13.71826574775658</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.78971840415392</v>
+        <v>14.78971840415391</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>39.9879037961083</v>
+        <v>39.98790379610812</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.50627715647558</v>
+        <v>18.50627715647554</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.00791809365311</v>
+        <v>20.00791809365309</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.7625183533255</v>
+        <v>21.76251835332543</v>
       </c>
       <c r="C20">
-        <v>14.00275948605936</v>
+        <v>14.00275948605913</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>15.1209497829102</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>40.68523044992364</v>
+        <v>40.68523044992325</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.89165781675799</v>
+        <v>18.89165781675789</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.43139140535716</v>
+        <v>20.43139140535713</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26568253488999</v>
+        <v>23.26568253489007</v>
       </c>
       <c r="C21">
-        <v>14.93951793811332</v>
+        <v>14.93951793811312</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.21308399290292</v>
+        <v>16.21308399290299</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.01761108485038</v>
+        <v>43.01761108485096</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.15761383769346</v>
+        <v>20.15761383769347</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.82422151419135</v>
+        <v>21.82422151419141</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.22352731463043</v>
+        <v>24.22352731463045</v>
       </c>
       <c r="C22">
         <v>15.53892824586344</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.91304837162953</v>
+        <v>16.91304837162959</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>44.53639264719315</v>
+        <v>44.53639264719329</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.96516444368593</v>
+        <v>20.96516444368599</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.71413917335151</v>
+        <v>22.71413917335155</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.71441958348325</v>
+        <v>23.71441958348332</v>
       </c>
       <c r="C23">
         <v>15.22008539398386</v>
@@ -1219,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.54061202735821</v>
+        <v>16.54061202735816</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>43.72612590570007</v>
+        <v>43.72612590570012</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.53585620629382</v>
+        <v>20.53585620629389</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.24090141727199</v>
+        <v>22.24090141727197</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.73750686782431</v>
+        <v>21.73750686782449</v>
       </c>
       <c r="C24">
-        <v>13.98721164120646</v>
+        <v>13.98721164120641</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.1028421293747</v>
+        <v>15.10284212937466</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>40.64698107625802</v>
+        <v>40.6469810762581</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.87060715110492</v>
+        <v>18.87060715110503</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.40825370477349</v>
+        <v>20.40825370477351</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.48755794433226</v>
+        <v>19.48755794433225</v>
       </c>
       <c r="C25">
-        <v>12.59362245230751</v>
+        <v>12.59362245230741</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.63019936431557</v>
+        <v>13.6301993643156</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.2887087961542</v>
+        <v>37.28870879615425</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.97883589438584</v>
+        <v>16.97883589438581</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.33184850272059</v>
+        <v>18.33184850272064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.71822770005335</v>
+        <v>17.71822770005334</v>
       </c>
       <c r="C2">
-        <v>11.50457780914996</v>
+        <v>11.50457780914999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.55249969904772</v>
+        <v>12.55249969904768</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.77589738666387</v>
+        <v>34.77589738666384</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.49388032131772</v>
+        <v>15.49388032131771</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.70586744916079</v>
+        <v>16.70586744916071</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.44390937531677</v>
+        <v>16.44390937531675</v>
       </c>
       <c r="C3">
-        <v>10.7239610748309</v>
+        <v>10.72396107483081</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.80137448308581</v>
+        <v>11.80137448308582</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>33.04733462775697</v>
+        <v>33.04733462775702</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.42599113524675</v>
+        <v>14.42599113524674</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.53858352112522</v>
+        <v>15.53858352112516</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.62293251642571</v>
+        <v>15.62293251642567</v>
       </c>
       <c r="C4">
-        <v>10.22276120367549</v>
+        <v>10.22276120367562</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.33020201489858</v>
+        <v>11.33020201489852</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.97417151827178</v>
+        <v>31.97417151827165</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.73879801732434</v>
+        <v>13.73879801732429</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.27849182300125</v>
+        <v>15.27849182300112</v>
       </c>
       <c r="C5">
-        <v>10.01289617900187</v>
+        <v>10.01289617900203</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.13578087066335</v>
+        <v>11.13578087066328</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>31.53410690217627</v>
+        <v>31.5341069021763</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.45068660373928</v>
+        <v>13.45068660373922</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.47392252805383</v>
+        <v>14.47392252805381</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22069518742494</v>
+        <v>15.22069518742481</v>
       </c>
       <c r="C6">
-        <v>9.977705619965764</v>
+        <v>9.977705619965855</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.10335531019739</v>
+        <v>11.10335531019736</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>31.46087738277745</v>
+        <v>31.46087738277737</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.40235408053944</v>
+        <v>13.40235408053938</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.42119625043066</v>
+        <v>14.42119625043063</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.61832754439952</v>
+        <v>15.6183275443995</v>
       </c>
       <c r="C7">
-        <v>10.21995379532236</v>
+        <v>10.21995379532257</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>11.32758959754521</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.96824738447411</v>
+        <v>31.96824738447406</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.73494533021725</v>
+        <v>13.73494533021726</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.78408753925913</v>
+        <v>14.78408753925907</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.28671999248257</v>
+        <v>17.28671999248261</v>
       </c>
       <c r="C8">
-        <v>11.23989146754062</v>
+        <v>11.23989146754067</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.29562375178515</v>
+        <v>12.29562375178512</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>34.18245058127036</v>
+        <v>34.1824505812705</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.13211399914115</v>
+        <v>15.13211399914111</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.31024375440449</v>
+        <v>16.31024375440447</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.26225166430497</v>
+        <v>20.262251664305</v>
       </c>
       <c r="C9">
-        <v>13.07234469728338</v>
+        <v>13.07234469728336</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>14.11330396104916</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.42585526908076</v>
+        <v>38.42585526908073</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.62978056240507</v>
+        <v>17.62978056240508</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.04568091724677</v>
+        <v>19.04568091724679</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>22.28272668232491</v>
       </c>
       <c r="C10">
-        <v>14.32642234101646</v>
+        <v>14.32642234101644</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.49804426735663</v>
+        <v>15.49804426735665</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.48502301160146</v>
+        <v>41.48502301160134</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.91290689241983</v>
+        <v>20.91290689241981</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16975402021394</v>
+        <v>23.16975402021384</v>
       </c>
       <c r="C11">
-        <v>14.87959562336769</v>
+        <v>14.87959562336758</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.14315673909459</v>
+        <v>16.14315673909454</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>42.86685448369045</v>
+        <v>42.86685448369041</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.07677437501365</v>
+        <v>20.07677437501357</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.73519908928721</v>
+        <v>21.73519908928715</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.50140244427521</v>
+        <v>23.50140244427529</v>
       </c>
       <c r="C12">
-        <v>15.08684506429887</v>
+        <v>15.08684506429879</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.38504671286051</v>
+        <v>16.38504671286049</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.38911817562259</v>
+        <v>43.38911817562266</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.35628477806839</v>
+        <v>20.35628477806844</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.04305076287292</v>
+        <v>22.04305076287297</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.43015862983443</v>
+        <v>23.43015862983446</v>
       </c>
       <c r="C13">
-        <v>15.04230448969671</v>
+        <v>15.04230448969656</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.33305266441003</v>
+        <v>16.33305266441005</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.27667603974149</v>
+        <v>43.27667603974189</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.29623433499424</v>
+        <v>20.29623433499421</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.97690005839932</v>
+        <v>21.97690005839934</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19712182021671</v>
+        <v>23.19712182021673</v>
       </c>
       <c r="C14">
-        <v>14.89668909124619</v>
+        <v>14.89668909124617</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.16310332602372</v>
+        <v>16.1631033260237</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>42.90983874345266</v>
+        <v>42.9098387434527</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.05383837520453</v>
+        <v>23.05383837520442</v>
       </c>
       <c r="C15">
-        <v>14.80721422662649</v>
+        <v>14.80721422662661</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.05870190427784</v>
+        <v>16.05870190427782</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.68502384617543</v>
+        <v>42.68502384617545</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.97910059997071</v>
+        <v>19.97910059997069</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.62765326806107</v>
+        <v>21.62765326806105</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.22414161389083</v>
+        <v>22.22414161389076</v>
       </c>
       <c r="C16">
-        <v>14.28994443918226</v>
+        <v>14.2899444391822</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.45553085295073</v>
+        <v>15.45553085295069</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.39455098504641</v>
+        <v>41.39455098504633</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.28025984136072</v>
+        <v>19.28025984136067</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.85865261809966</v>
+        <v>20.85865261809961</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.70717347766664</v>
+        <v>21.70717347766656</v>
       </c>
       <c r="C17">
-        <v>13.96835723670054</v>
+        <v>13.96835723670059</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.0808843777916</v>
+        <v>15.08088437779158</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.60061859289377</v>
+        <v>40.60061859289393</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.84507796693318</v>
+        <v>18.8450779669332</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.38019445030244</v>
+        <v>20.38019445030242</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>21.40678132329053</v>
       </c>
       <c r="C18">
-        <v>13.78174113123231</v>
+        <v>13.78174113123232</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.86360301926391</v>
+        <v>14.86360301926389</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.14301458361173</v>
+        <v>40.14301458361171</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.59229803081144</v>
+        <v>18.59229803081143</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.30454025322161</v>
+        <v>21.30454025322167</v>
       </c>
       <c r="C19">
-        <v>13.71826574775658</v>
+        <v>13.71826574775675</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.78971840415391</v>
+        <v>14.78971840415392</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>39.98790379610812</v>
+        <v>39.9879037961083</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.50627715647554</v>
+        <v>18.50627715647558</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.00791809365309</v>
+        <v>20.00791809365311</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.76251835332543</v>
+        <v>21.7625183533255</v>
       </c>
       <c r="C20">
-        <v>14.00275948605913</v>
+        <v>14.00275948605936</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>15.1209497829102</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>40.68523044992325</v>
+        <v>40.68523044992364</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.89165781675789</v>
+        <v>18.89165781675799</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.43139140535713</v>
+        <v>20.43139140535716</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26568253489007</v>
+        <v>23.26568253488999</v>
       </c>
       <c r="C21">
-        <v>14.93951793811312</v>
+        <v>14.93951793811332</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.21308399290299</v>
+        <v>16.21308399290292</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.01761108485096</v>
+        <v>43.01761108485038</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.15761383769347</v>
+        <v>20.15761383769346</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.82422151419141</v>
+        <v>21.82422151419135</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.22352731463045</v>
+        <v>24.22352731463043</v>
       </c>
       <c r="C22">
         <v>15.53892824586344</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.91304837162959</v>
+        <v>16.91304837162953</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.53639264719329</v>
+        <v>44.53639264719315</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.96516444368599</v>
+        <v>20.96516444368593</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.71413917335155</v>
+        <v>22.71413917335151</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.71441958348332</v>
+        <v>23.71441958348325</v>
       </c>
       <c r="C23">
         <v>15.22008539398386</v>
@@ -1219,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.54061202735816</v>
+        <v>16.54061202735821</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.72612590570012</v>
+        <v>43.72612590570007</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.53585620629389</v>
+        <v>20.53585620629382</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.24090141727197</v>
+        <v>22.24090141727199</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.73750686782449</v>
+        <v>21.73750686782431</v>
       </c>
       <c r="C24">
-        <v>13.98721164120641</v>
+        <v>13.98721164120646</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.10284212937466</v>
+        <v>15.1028421293747</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>40.6469810762581</v>
+        <v>40.64698107625802</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.87060715110503</v>
+        <v>18.87060715110492</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.40825370477351</v>
+        <v>20.40825370477349</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.48755794433225</v>
+        <v>19.48755794433226</v>
       </c>
       <c r="C25">
-        <v>12.59362245230741</v>
+        <v>12.59362245230751</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.6301993643156</v>
+        <v>13.63019936431557</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.28870879615425</v>
+        <v>37.2887087961542</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.97883589438581</v>
+        <v>16.97883589438584</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.33184850272064</v>
+        <v>18.33184850272059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.71822770005334</v>
+        <v>17.71739147638616</v>
       </c>
       <c r="C2">
-        <v>11.50457780914999</v>
+        <v>11.50346308920861</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.55249969904768</v>
+        <v>12.55216595994329</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.77589738666384</v>
+        <v>33.56074199379013</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>34.77543064249591</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.49388032131771</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.49287461436607</v>
       </c>
       <c r="L2">
-        <v>16.70586744916071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>16.70529575274444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.44390937531675</v>
+        <v>16.44340135414056</v>
       </c>
       <c r="C3">
-        <v>10.72396107483081</v>
+        <v>10.72325663834693</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.80137448308582</v>
+        <v>11.80115071427407</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>33.04733462775702</v>
+        <v>31.62690357723755</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>33.04863596663363</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.42599113524674</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.42536096836991</v>
       </c>
       <c r="L3">
-        <v>15.53858352112516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.53823265551111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.62293251642567</v>
+        <v>15.62261504245891</v>
       </c>
       <c r="C4">
-        <v>10.22276120367562</v>
+        <v>10.22230841374549</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.33020201489852</v>
+        <v>11.33005217133005</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.97417151827165</v>
+        <v>30.41432186689422</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>31.97672159926848</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.73879801732429</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.73839527985685</v>
       </c>
       <c r="L4">
-        <v>14.78829211504091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14.78807092154388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.27849182300112</v>
+        <v>15.27824962099641</v>
       </c>
       <c r="C5">
-        <v>10.01289617900203</v>
+        <v>10.01254638329409</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.13578087066328</v>
+        <v>11.13566304278171</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>31.5341069021763</v>
+        <v>29.91405572710349</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>31.5372078017288</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.45068660373922</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.45037624120019</v>
       </c>
       <c r="L5">
-        <v>14.47392252805381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.47375305634541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22069518742481</v>
+        <v>15.22046535071568</v>
       </c>
       <c r="C6">
-        <v>9.977705619965855</v>
+        <v>9.97737296811829</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.10335531019736</v>
+        <v>11.10324292063451</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>31.46087738277737</v>
+        <v>29.83062500386361</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>31.46407230168508</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.40235408053938</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.40205905229485</v>
       </c>
       <c r="L6">
-        <v>14.42119625043063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.42103530956665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.6183275443995</v>
+        <v>15.61801109474185</v>
       </c>
       <c r="C7">
-        <v>10.21995379532257</v>
+        <v>10.2195023919324</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.32758959754521</v>
+        <v>11.32744017773546</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.96824738447406</v>
+        <v>30.40759956259376</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>31.97080472309325</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.73494533021726</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.73454383915291</v>
       </c>
       <c r="L7">
-        <v>14.78408753925907</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14.78386704737454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.28671999248261</v>
+        <v>17.28599945824114</v>
       </c>
       <c r="C8">
-        <v>11.23989146754067</v>
+        <v>11.23891858404802</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.29562375178512</v>
+        <v>12.29532677455685</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>34.1824505812705</v>
+        <v>32.8992721685953</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>34.18256022940285</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.13211399914111</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.13123873528322</v>
       </c>
       <c r="L8">
-        <v>16.31024375440447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.30974966117025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.262251664305</v>
+        <v>20.26063094309969</v>
       </c>
       <c r="C9">
-        <v>13.07234469728336</v>
+        <v>13.07032258804409</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.11330396104916</v>
+        <v>14.11275497795216</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.42585526908073</v>
+        <v>37.58264627512057</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.42240944035553</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.62978056240508</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.62792740392894</v>
       </c>
       <c r="L9">
-        <v>19.04568091724679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.04458454981619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.28272668232491</v>
+        <v>22.28034337942278</v>
       </c>
       <c r="C10">
-        <v>14.32642234101644</v>
+        <v>14.32357536942851</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.49804426735665</v>
+        <v>15.49779966116288</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.48502301160134</v>
+        <v>40.90516354796043</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>41.47964602623853</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.32958875617903</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.32694982033668</v>
       </c>
       <c r="L10">
-        <v>20.91290689241981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>20.91129701774746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16975402021384</v>
+        <v>23.1669915019901</v>
       </c>
       <c r="C11">
-        <v>14.87959562336758</v>
+        <v>14.87635164637373</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.14315673909454</v>
+        <v>16.14285748602034</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>42.86685448369041</v>
+        <v>42.39470834692764</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>42.86072764716344</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.07677437501357</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.07375315989766</v>
       </c>
       <c r="L11">
-        <v>21.73519908928715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>21.73333140095358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.50140244427529</v>
+        <v>23.49849057828129</v>
       </c>
       <c r="C12">
-        <v>15.08684506429879</v>
+        <v>15.08344659666684</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.38504671286049</v>
+        <v>16.38472456013662</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.38911817562266</v>
+        <v>42.95610178048563</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>43.38272409396289</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.35628477806844</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.35311417964523</v>
       </c>
       <c r="L12">
-        <v>22.04305076287297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>22.04108102918335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.43015862983446</v>
+        <v>23.42727920432284</v>
       </c>
       <c r="C13">
-        <v>15.04230448969656</v>
+        <v>15.03893949753799</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.33305266441005</v>
+        <v>16.33273555167415</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.27667603974189</v>
+        <v>42.83530486818732</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>43.27033880182651</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.29623433499421</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.29309613359248</v>
       </c>
       <c r="L13">
-        <v>21.97690005839934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>21.97495251559785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19712182021673</v>
+        <v>23.19434713741779</v>
       </c>
       <c r="C14">
-        <v>14.89668909124617</v>
+        <v>14.89343249401822</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.1631033260237</v>
+        <v>16.16280223675635</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>42.9098387434527</v>
+        <v>42.44094462581237</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>42.90368959666369</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.09983667964376</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.0968032741042</v>
       </c>
       <c r="L14">
-        <v>21.76059472682429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>21.75871873778099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.05383837520442</v>
+        <v>23.05112706510288</v>
       </c>
       <c r="C15">
-        <v>14.80721422662661</v>
+        <v>14.80402344983754</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.05870190427782</v>
+        <v>16.0584103243096</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.68502384617545</v>
+        <v>42.19905744715633</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>42.67899202979762</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.97910059997069</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.97613074809878</v>
       </c>
       <c r="L15">
-        <v>21.62765326806105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>21.62582050126597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.22414161389076</v>
+        <v>22.22178235461481</v>
       </c>
       <c r="C16">
-        <v>14.2899444391822</v>
+        <v>14.28712289162611</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.45553085295069</v>
+        <v>15.45528954158834</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.39455098504633</v>
+        <v>40.80741572642645</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>41.38922544409465</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.28025984136067</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.27764530347461</v>
       </c>
       <c r="L16">
-        <v>20.85865261809961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>20.85705902951754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.70717347766656</v>
+        <v>21.70502120252741</v>
       </c>
       <c r="C17">
-        <v>13.96835723670059</v>
+        <v>13.96575595336264</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.08088437779158</v>
+        <v>15.08067059069995</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.60061859289393</v>
+        <v>39.94837980199269</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>40.59575806171281</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.8450779669332</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.84267435764664</v>
       </c>
       <c r="L17">
-        <v>20.38019445030242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>20.37874078355163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.40678132329053</v>
+        <v>21.40474513668156</v>
       </c>
       <c r="C18">
-        <v>13.78174113123232</v>
+        <v>13.7792645598057</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.86360301926389</v>
+        <v>14.86340401132948</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.14301458361171</v>
+        <v>39.45218755025628</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>40.13843373906901</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.59229803081143</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.59001347898262</v>
       </c>
       <c r="L18">
-        <v>20.10242055185106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>20.10104515138686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.30454025322167</v>
+        <v>21.3025428930551</v>
       </c>
       <c r="C19">
-        <v>13.71826574775675</v>
+        <v>13.71583109001855</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.78971840415392</v>
+        <v>14.78952423394963</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>39.9879037961083</v>
+        <v>39.28381285225483</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>39.98341979997316</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.50627715647558</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.50403255559434</v>
       </c>
       <c r="L19">
-        <v>20.00791809365311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.00656883800321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.7625183533255</v>
+        <v>21.76034435828686</v>
       </c>
       <c r="C20">
-        <v>14.00275948605936</v>
+        <v>14.00013496676355</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.1209497829102</v>
+        <v>15.12073317820909</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>40.68523044992364</v>
+        <v>40.04003970842279</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>40.68031916474409</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.89165781675799</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.88923199495901</v>
       </c>
       <c r="L20">
-        <v>20.43139140535716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>20.42992307886283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26568253488999</v>
+        <v>23.26287725257795</v>
       </c>
       <c r="C21">
-        <v>14.93951793811332</v>
+        <v>14.93622962452311</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.21308399290292</v>
+        <v>16.21277826198382</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.01761108485038</v>
+        <v>42.55684551245952</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>43.01140625300091</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.15761383769346</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.15454978597066</v>
       </c>
       <c r="L21">
-        <v>21.82422151419135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>21.82232463644029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.22352731463043</v>
+        <v>24.22027525122371</v>
       </c>
       <c r="C22">
-        <v>15.53892824586344</v>
+        <v>15.53518126646738</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.91304837162953</v>
+        <v>16.91267117875818</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.53639264719315</v>
+        <v>44.1865271723703</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>44.52943879569787</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.96516444368593</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.96165567418657</v>
       </c>
       <c r="L22">
-        <v>22.71413917335151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>22.71193587035204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.71441958348325</v>
+        <v>23.71140953529408</v>
       </c>
       <c r="C23">
-        <v>15.22008539398386</v>
+        <v>15.21658587840803</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.54061202735821</v>
+        <v>16.54027439895944</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.72612590570007</v>
+        <v>43.31792598313803</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>43.71956364990958</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.53585620629382</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.53258772276942</v>
       </c>
       <c r="L23">
-        <v>22.24090141727199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>22.23886443610521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.73750686782431</v>
+        <v>21.73534270133399</v>
       </c>
       <c r="C24">
-        <v>13.98721164120646</v>
+        <v>13.9845976327954</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.1028421293747</v>
+        <v>15.10262680173066</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>40.64698107625802</v>
+        <v>39.99860752862837</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>40.6420926983923</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.87060715110492</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.8681913783837</v>
       </c>
       <c r="L24">
-        <v>20.40825370477349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>20.40679201266095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.48755794433226</v>
+        <v>19.48619554200435</v>
       </c>
       <c r="C25">
-        <v>12.59362245230751</v>
+        <v>12.59189066266452</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.63019936431557</v>
+        <v>13.62971654687346</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.2887087961542</v>
+        <v>36.33728989114924</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37.28609914038024</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.97883589438584</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.97725607921488</v>
       </c>
       <c r="L25">
-        <v>18.33184850272059</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>18.3309249842068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.71739147638616</v>
+        <v>21.19448275799369</v>
       </c>
       <c r="C2">
-        <v>11.50346308920861</v>
+        <v>14.71913780276225</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.55216595994329</v>
+        <v>8.805656324821516</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>39.43315025966178</v>
       </c>
       <c r="G2">
-        <v>33.56074199379013</v>
+        <v>2.07558902098936</v>
       </c>
       <c r="H2">
-        <v>34.77543064249591</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.533183455521883</v>
       </c>
       <c r="K2">
-        <v>15.49287461436607</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.70529575274444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.1419874255227</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.23154887160736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.44340135414056</v>
+        <v>19.68568243362235</v>
       </c>
       <c r="C3">
-        <v>10.72325663834693</v>
+        <v>13.70408363321773</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.80115071427407</v>
+        <v>8.654947786152281</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>37.77392958352348</v>
       </c>
       <c r="G3">
-        <v>31.62690357723755</v>
+        <v>2.08663011489215</v>
       </c>
       <c r="H3">
-        <v>33.04863596663363</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.590777735557892</v>
       </c>
       <c r="K3">
-        <v>14.42536096836991</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.53823265551111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.34631983591856</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.18874440194762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.62261504245891</v>
+        <v>18.71177077965914</v>
       </c>
       <c r="C4">
-        <v>10.22230841374549</v>
+        <v>13.04940745074369</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.33005217133005</v>
+        <v>8.564275743900469</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>36.75973343006472</v>
       </c>
       <c r="G4">
-        <v>30.41432186689422</v>
+        <v>2.093547173088635</v>
       </c>
       <c r="H4">
-        <v>31.97672159926848</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.62848194671506</v>
       </c>
       <c r="K4">
-        <v>13.73839527985685</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.78807092154388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.84541194058761</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.56148304796719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.27824962099641</v>
+        <v>18.30275709069955</v>
       </c>
       <c r="C5">
-        <v>10.01254638329409</v>
+        <v>12.7745905904522</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.13566304278171</v>
+        <v>8.527831007296609</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>36.34796793113961</v>
       </c>
       <c r="G5">
-        <v>29.91405572710349</v>
+        <v>2.096403486827778</v>
       </c>
       <c r="H5">
-        <v>31.5372078017288</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.644413094802435</v>
       </c>
       <c r="K5">
-        <v>13.45037624120019</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.47375305634541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.63838927126129</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.30926529198204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22046535071568</v>
+        <v>18.23410226920754</v>
       </c>
       <c r="C6">
-        <v>9.97737296811829</v>
+        <v>12.72846888402698</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.10324292063451</v>
+        <v>8.521810953076384</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>36.27969911400826</v>
       </c>
       <c r="G6">
-        <v>29.83062500386361</v>
+        <v>2.096880124476535</v>
       </c>
       <c r="H6">
-        <v>31.46407230168508</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.647092055572518</v>
       </c>
       <c r="K6">
-        <v>13.40205905229485</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.42103530956665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.60384537337771</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.26759383596579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.61801109474185</v>
+        <v>18.70630406458967</v>
       </c>
       <c r="C7">
-        <v>10.2195023919324</v>
+        <v>13.04573385281526</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.32744017773546</v>
+        <v>8.563782144787238</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>36.75417348504917</v>
       </c>
       <c r="G7">
-        <v>30.40759956259376</v>
+        <v>2.093585538593568</v>
       </c>
       <c r="H7">
-        <v>31.97080472309325</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.628694534048016</v>
       </c>
       <c r="K7">
-        <v>13.73454383915291</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.78386704737454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.84263138215617</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.55806762210667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.28599945824114</v>
+        <v>20.68398779337175</v>
       </c>
       <c r="C8">
-        <v>11.23891858404802</v>
+        <v>14.37558943457615</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.29532677455685</v>
+        <v>8.753326630394117</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>38.86030767141707</v>
       </c>
       <c r="G8">
-        <v>32.8992721685953</v>
+        <v>2.079369223342538</v>
       </c>
       <c r="H8">
-        <v>34.18256022940285</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.552541779854435</v>
       </c>
       <c r="K8">
-        <v>15.13123873528322</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.30974966117025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.87031859367497</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>26.86935055372375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.26063094309969</v>
+        <v>24.19470816213266</v>
       </c>
       <c r="C9">
-        <v>13.07032258804409</v>
+        <v>16.74048551072749</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.11275497795216</v>
+        <v>9.138298364527881</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>43.01405911369925</v>
       </c>
       <c r="G9">
-        <v>37.58264627512057</v>
+        <v>2.052438707382204</v>
       </c>
       <c r="H9">
-        <v>38.42240944035553</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.422944928828864</v>
       </c>
       <c r="K9">
-        <v>17.62792740392894</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.04458454981619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.14217950563812</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>29.54068227973033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.28034337942278</v>
+        <v>26.56435320742027</v>
       </c>
       <c r="C10">
-        <v>14.32357536942851</v>
+        <v>18.33989690864897</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.49779966116288</v>
+        <v>9.42739106786388</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>46.06996993197133</v>
       </c>
       <c r="G10">
-        <v>40.90516354796043</v>
+        <v>2.033002428943581</v>
       </c>
       <c r="H10">
-        <v>41.47964602623853</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.341668393827248</v>
       </c>
       <c r="K10">
-        <v>19.32694982033668</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.91129701774746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18.76261998559958</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>31.56345542042758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.1669915019901</v>
+        <v>27.60044049885044</v>
       </c>
       <c r="C11">
-        <v>14.87635164637373</v>
+        <v>19.04009773638432</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.14285748602034</v>
+        <v>9.559945167623745</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>47.46101196248885</v>
       </c>
       <c r="G11">
-        <v>42.39470834692764</v>
+        <v>2.024177173207449</v>
       </c>
       <c r="H11">
-        <v>42.86072764716344</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.308244101133795</v>
       </c>
       <c r="K11">
-        <v>20.07375315989766</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.73333140095358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19.46880513859459</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>32.49790355850987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.49849057828129</v>
+        <v>27.98709786457336</v>
       </c>
       <c r="C12">
-        <v>15.08344659666684</v>
+        <v>19.30155388099343</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.38472456013662</v>
+        <v>9.610269394172148</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>47.9880348999815</v>
       </c>
       <c r="G12">
-        <v>42.95610178048563</v>
+        <v>2.020831917328467</v>
       </c>
       <c r="H12">
-        <v>43.38272409396289</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.296150861119131</v>
       </c>
       <c r="K12">
-        <v>20.35311417964523</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.04108102918335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.73196188656808</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>32.85401043566085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.42727920432284</v>
+        <v>27.90407140005649</v>
       </c>
       <c r="C13">
-        <v>15.03893949753799</v>
+        <v>19.24540473869776</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.33273555167415</v>
+        <v>9.599425717981095</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>47.87451572783448</v>
       </c>
       <c r="G13">
-        <v>42.83530486818732</v>
+        <v>2.021552624929793</v>
       </c>
       <c r="H13">
-        <v>43.27033880182651</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.298729331608642</v>
       </c>
       <c r="K13">
-        <v>20.29309613359248</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.97495251559785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19.67547255463815</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>32.77721211321409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19434713741779</v>
+        <v>27.63236292830655</v>
       </c>
       <c r="C14">
-        <v>14.89343249401822</v>
+        <v>19.06168043502358</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.16280223675635</v>
+        <v>9.5640828910301</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>47.50436389764033</v>
       </c>
       <c r="G14">
-        <v>42.44094462581237</v>
+        <v>2.023902058991807</v>
       </c>
       <c r="H14">
-        <v>42.90368959666369</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.307237544605732</v>
       </c>
       <c r="K14">
-        <v>20.0968032741042</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.75871873778099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19.49053940644205</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>32.52715408010501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.05112706510288</v>
+        <v>27.46520376223484</v>
       </c>
       <c r="C15">
-        <v>14.80402344983754</v>
+        <v>18.94867057383012</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.0584103243096</v>
+        <v>9.542450635806825</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>47.27767602240993</v>
       </c>
       <c r="G15">
-        <v>42.19905744715633</v>
+        <v>2.025340540224894</v>
       </c>
       <c r="H15">
-        <v>42.67899202979762</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.312524237357874</v>
       </c>
       <c r="K15">
-        <v>19.97613074809878</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.62582050126597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19.37671377344596</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>32.37428706741819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.22178235461481</v>
+        <v>26.49582756136214</v>
       </c>
       <c r="C16">
-        <v>14.28712289162611</v>
+        <v>18.29360620613708</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.45528954158834</v>
+        <v>9.418747412422917</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>45.9790889017763</v>
       </c>
       <c r="G16">
-        <v>40.80741572642645</v>
+        <v>2.033579042196041</v>
       </c>
       <c r="H16">
-        <v>41.38922544409465</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.343928534555168</v>
       </c>
       <c r="K16">
-        <v>19.27764530347461</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.85705902951754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.71586202830796</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>31.50268918118194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.70502120252741</v>
+        <v>25.8906473544672</v>
       </c>
       <c r="C17">
-        <v>13.96575595336264</v>
+        <v>17.88489574775145</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.08067059069995</v>
+        <v>9.34311009123199</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>45.1827348730307</v>
       </c>
       <c r="G17">
-        <v>39.94837980199269</v>
+        <v>2.038633494621208</v>
       </c>
       <c r="H17">
-        <v>40.59575806171281</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.364138340770105</v>
       </c>
       <c r="K17">
-        <v>18.84267435764664</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.37874078355163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18.30265094527831</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>30.97176119628315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.40474513668156</v>
+        <v>25.53859985125587</v>
       </c>
       <c r="C18">
-        <v>13.7792645598057</v>
+        <v>17.64722299217752</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.86340401132948</v>
+        <v>9.299704768442753</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>44.72476151868018</v>
       </c>
       <c r="G18">
-        <v>39.45218755025628</v>
+        <v>2.041542608761303</v>
       </c>
       <c r="H18">
-        <v>40.13843373906901</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.376092830608911</v>
       </c>
       <c r="K18">
-        <v>18.59001347898262</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.10104515138686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18.06205596834979</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>30.6677121983639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.3025428930551</v>
+        <v>25.41871224829131</v>
       </c>
       <c r="C19">
-        <v>13.71583109001855</v>
+        <v>17.56629879213025</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.78952423394963</v>
+        <v>9.285026259741294</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>44.56970921078714</v>
       </c>
       <c r="G19">
-        <v>39.28381285225483</v>
+        <v>2.042528076430945</v>
       </c>
       <c r="H19">
-        <v>39.98341979997316</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.380195663373915</v>
       </c>
       <c r="K19">
-        <v>18.50403255559434</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.00656883800321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.98008644004657</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>30.56498976879544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.76034435828686</v>
+        <v>25.95547776345986</v>
       </c>
       <c r="C20">
-        <v>14.00013496676355</v>
+        <v>17.92867041475121</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.12073317820909</v>
+        <v>9.351151711925876</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>45.26750044214452</v>
       </c>
       <c r="G20">
-        <v>40.04003970842279</v>
+        <v>2.038095278806028</v>
       </c>
       <c r="H20">
-        <v>40.68031916474409</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.361952423509567</v>
       </c>
       <c r="K20">
-        <v>18.88923199495901</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.42992307886283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18.34693956980258</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>31.0281409360857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26287725257795</v>
+        <v>27.7123217412775</v>
       </c>
       <c r="C21">
-        <v>14.93622962452311</v>
+        <v>19.1157428980107</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.21277826198382</v>
+        <v>9.574460580036323</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>47.61307753311531</v>
       </c>
       <c r="G21">
-        <v>42.55684551245952</v>
+        <v>2.023212112706603</v>
       </c>
       <c r="H21">
-        <v>43.01140625300091</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.304722703072957</v>
       </c>
       <c r="K21">
-        <v>20.15454978597066</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.82232463644029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19.54497273765902</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>32.6005390177607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.22027525122371</v>
+        <v>28.82756316822098</v>
       </c>
       <c r="C22">
-        <v>15.53518126646738</v>
+        <v>19.870164608311</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.91267117875818</v>
+        <v>9.721151375193161</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>49.14775209560278</v>
       </c>
       <c r="G22">
-        <v>44.1865271723703</v>
+        <v>2.013462491496274</v>
       </c>
       <c r="H22">
-        <v>44.52943879569787</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.270637774311815</v>
       </c>
       <c r="K22">
-        <v>20.96165567418657</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.71193587035204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.30323037715273</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>33.64148012707439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.71140953529408</v>
+        <v>28.23523143714357</v>
       </c>
       <c r="C23">
-        <v>15.21658587840803</v>
+        <v>19.46938474175239</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.54027439895944</v>
+        <v>9.642797021877575</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>48.32843250967714</v>
       </c>
       <c r="G23">
-        <v>43.31792598313803</v>
+        <v>2.018670210517771</v>
       </c>
       <c r="H23">
-        <v>43.71956364990958</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.288505825361294</v>
       </c>
       <c r="K23">
-        <v>20.53258772276942</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.23886443610521</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>19.90072710927249</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>33.0846031209539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.73534270133399</v>
+        <v>25.92618079738709</v>
       </c>
       <c r="C24">
-        <v>13.9845976327954</v>
+        <v>17.90888831453365</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.10262680173066</v>
+        <v>9.34751584561891</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>45.22917836942064</v>
       </c>
       <c r="G24">
-        <v>39.99860752862837</v>
+        <v>2.038338595659839</v>
       </c>
       <c r="H24">
-        <v>40.6420926983923</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.362939635308748</v>
       </c>
       <c r="K24">
-        <v>18.8681913783837</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.40679201266095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18.32692614840802</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>31.00264796728921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.48619554200435</v>
+        <v>23.28290930529654</v>
       </c>
       <c r="C25">
-        <v>12.59189066266452</v>
+        <v>16.1257588372931</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.62971654687346</v>
+        <v>9.032932795886078</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>41.88924335672684</v>
       </c>
       <c r="G25">
-        <v>36.33728989114924</v>
+        <v>2.059644633277112</v>
       </c>
       <c r="H25">
-        <v>37.28609914038024</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.455712685195333</v>
       </c>
       <c r="K25">
-        <v>16.97725607921488</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.3309249842068</v>
+        <v>16.51681667997138</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>28.80760781299387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.19448275799369</v>
+        <v>12.11184803922484</v>
       </c>
       <c r="C2">
-        <v>14.71913780276225</v>
+        <v>7.684005041633085</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.805656324821516</v>
+        <v>4.334529723252903</v>
       </c>
       <c r="F2">
-        <v>39.43315025966178</v>
+        <v>44.41017605952838</v>
       </c>
       <c r="G2">
-        <v>2.07558902098936</v>
+        <v>2.179720270401871</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>33.64035216608873</v>
       </c>
       <c r="J2">
-        <v>5.533183455521883</v>
+        <v>8.012568267706536</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.05434409805031</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.602839866565125</v>
       </c>
       <c r="M2">
-        <v>15.1419874255227</v>
+        <v>9.302025357395369</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.23154887160736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68568243362235</v>
+        <v>11.50205650199159</v>
       </c>
       <c r="C3">
-        <v>13.70408363321773</v>
+        <v>7.15745221526621</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.654947786152281</v>
+        <v>4.364392169854538</v>
       </c>
       <c r="F3">
-        <v>37.77392958352348</v>
+        <v>43.18714178201414</v>
       </c>
       <c r="G3">
-        <v>2.08663011489215</v>
+        <v>2.188419218442518</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>32.96932975232206</v>
       </c>
       <c r="J3">
-        <v>5.590777735557892</v>
+        <v>8.025539797023209</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.56075795862841</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.581448990637132</v>
       </c>
       <c r="M3">
-        <v>14.34631983591856</v>
+        <v>9.140604549350781</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.18874440194762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.71177077965914</v>
+        <v>11.12144776440506</v>
       </c>
       <c r="C4">
-        <v>13.04940745074369</v>
+        <v>6.846526652713893</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.564275743900469</v>
+        <v>4.38462262265061</v>
       </c>
       <c r="F4">
-        <v>36.75973343006472</v>
+        <v>42.44145692359388</v>
       </c>
       <c r="G4">
-        <v>2.093547173088635</v>
+        <v>2.193901165453819</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>32.56377842055088</v>
       </c>
       <c r="J4">
-        <v>5.62848194671506</v>
+        <v>8.033719314124685</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.25510427985092</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.571599614840657</v>
       </c>
       <c r="M4">
-        <v>13.84541194058761</v>
+        <v>9.046811335110604</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.56148304796719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.30275709069955</v>
+        <v>10.96500862035143</v>
       </c>
       <c r="C5">
-        <v>12.7745905904522</v>
+        <v>6.717064582953021</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.527831007296609</v>
+        <v>4.393337582641999</v>
       </c>
       <c r="F5">
-        <v>36.34796793113961</v>
+        <v>42.13915659091133</v>
       </c>
       <c r="G5">
-        <v>2.096403486827778</v>
+        <v>2.196172035791429</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>32.40018944774246</v>
       </c>
       <c r="J5">
-        <v>5.644413094802435</v>
+        <v>8.03710803207203</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.13007059061521</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.568401218449189</v>
       </c>
       <c r="M5">
-        <v>13.63838927126129</v>
+        <v>9.009948822447461</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.30926529198204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.23410226920754</v>
+        <v>10.93895836240205</v>
       </c>
       <c r="C6">
-        <v>12.72846888402698</v>
+        <v>6.695403060119006</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.521810953076384</v>
+        <v>4.394812985354124</v>
       </c>
       <c r="F6">
-        <v>36.27969911400826</v>
+        <v>42.08906235791768</v>
       </c>
       <c r="G6">
-        <v>2.096880124476535</v>
+        <v>2.196551385922252</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>32.37312843663346</v>
       </c>
       <c r="J6">
-        <v>5.647092055572518</v>
+        <v>8.037674117692598</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.10928556569647</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.567919043482152</v>
       </c>
       <c r="M6">
-        <v>13.60384537337771</v>
+        <v>9.003910479049278</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.26759383596579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.70630406458967</v>
+        <v>11.11934307101883</v>
       </c>
       <c r="C7">
-        <v>13.04573385281526</v>
+        <v>6.844791755716249</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.563782144787238</v>
+        <v>4.384738255906965</v>
       </c>
       <c r="F7">
-        <v>36.75417348504917</v>
+        <v>42.43737329005027</v>
       </c>
       <c r="G7">
-        <v>2.093585538593568</v>
+        <v>2.193931639700188</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32.56156534407636</v>
       </c>
       <c r="J7">
-        <v>5.628694534048016</v>
+        <v>8.033764789036669</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.25341971688078</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.571553193621096</v>
       </c>
       <c r="M7">
-        <v>13.84263138215617</v>
+        <v>9.046308665681607</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.55806762210667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68398779337175</v>
+        <v>11.90299763628716</v>
       </c>
       <c r="C8">
-        <v>14.37558943457615</v>
+        <v>7.497815381887604</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.753326630394117</v>
+        <v>4.344429457082122</v>
       </c>
       <c r="F8">
-        <v>38.86030767141707</v>
+        <v>43.9875256069912</v>
       </c>
       <c r="G8">
-        <v>2.079369223342538</v>
+        <v>2.182691409751971</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>33.40767346806607</v>
       </c>
       <c r="J8">
-        <v>5.552541779854435</v>
+        <v>8.016997159330238</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.88478975869962</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.594776347770914</v>
       </c>
       <c r="M8">
-        <v>14.87031859367497</v>
+        <v>9.245276775961141</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.86935055372375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.19470816213266</v>
+        <v>13.38287541803409</v>
       </c>
       <c r="C9">
-        <v>16.74048551072749</v>
+        <v>8.779007777303152</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.138298364527881</v>
+        <v>4.280709860002853</v>
       </c>
       <c r="F9">
-        <v>43.01405911369925</v>
+        <v>47.05926327367182</v>
       </c>
       <c r="G9">
-        <v>2.052438707382204</v>
+        <v>2.161691330321757</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>35.11612364583032</v>
       </c>
       <c r="J9">
-        <v>5.422944928828864</v>
+        <v>7.985747004150051</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.09603115096547</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.666827152242038</v>
       </c>
       <c r="M9">
-        <v>17.14217950563812</v>
+        <v>9.67665619689719</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.54068227973033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.56435320742027</v>
+        <v>14.4277446837168</v>
       </c>
       <c r="C10">
-        <v>18.33989690864897</v>
+        <v>9.643882859336488</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.42739106786388</v>
+        <v>4.243714159297651</v>
       </c>
       <c r="F10">
-        <v>46.06996993197133</v>
+        <v>49.32433170623508</v>
       </c>
       <c r="G10">
-        <v>2.033002428943581</v>
+        <v>2.146784478777655</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>36.39931429842502</v>
       </c>
       <c r="J10">
-        <v>5.341668393827248</v>
+        <v>7.963663272458882</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.06269313927953</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.736505687325887</v>
       </c>
       <c r="M10">
-        <v>18.76261998559958</v>
+        <v>10.0173690885626</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>31.56345542042758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.60044049885044</v>
+        <v>14.93030774185494</v>
       </c>
       <c r="C11">
-        <v>19.04009773638432</v>
+        <v>10.02174789175942</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.559945167623745</v>
+        <v>4.229145161166778</v>
       </c>
       <c r="F11">
-        <v>47.46101196248885</v>
+        <v>50.35487255016914</v>
       </c>
       <c r="G11">
-        <v>2.024177173207449</v>
+        <v>2.140088455125086</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>36.98896114303392</v>
       </c>
       <c r="J11">
-        <v>5.308244101133795</v>
+        <v>7.9537761260407</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.56826927405558</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.771956850012431</v>
       </c>
       <c r="M11">
-        <v>19.46880513859459</v>
+        <v>10.17727470932134</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>32.49790355850987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.98709786457336</v>
+        <v>15.13605242367565</v>
       </c>
       <c r="C12">
-        <v>19.30155388099343</v>
+        <v>10.16268846351861</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.610269394172148</v>
+        <v>4.223966257695132</v>
       </c>
       <c r="F12">
-        <v>47.9880348999815</v>
+        <v>50.74504155062062</v>
       </c>
       <c r="G12">
-        <v>2.020831917328467</v>
+        <v>2.137562536318288</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>37.21309856361211</v>
       </c>
       <c r="J12">
-        <v>5.296150861119131</v>
+        <v>7.9500520211924</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.75660361714065</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.785930302643473</v>
       </c>
       <c r="M12">
-        <v>19.73196188656808</v>
+        <v>10.2385155594424</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>32.85401043566085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.90407140005649</v>
+        <v>15.09188399177488</v>
       </c>
       <c r="C13">
-        <v>19.24540473869776</v>
+        <v>10.13242842116486</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.599425717981095</v>
+        <v>4.225066363312161</v>
       </c>
       <c r="F13">
-        <v>47.87451572783448</v>
+        <v>50.66101604606764</v>
       </c>
       <c r="G13">
-        <v>2.021552624929793</v>
+        <v>2.138106148772321</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>37.16478850494513</v>
       </c>
       <c r="J13">
-        <v>5.298729331608642</v>
+        <v>7.950853237108404</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.71617928212246</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.782896312815586</v>
       </c>
       <c r="M13">
-        <v>19.67547255463815</v>
+        <v>10.22529588885822</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>32.77721211321409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.63236292830655</v>
+        <v>14.94729876714579</v>
       </c>
       <c r="C14">
-        <v>19.06168043502358</v>
+        <v>10.0333856720116</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.5640828910301</v>
+        <v>4.228712232814099</v>
       </c>
       <c r="F14">
-        <v>47.50436389764033</v>
+        <v>50.38697387456795</v>
       </c>
       <c r="G14">
-        <v>2.023902058991807</v>
+        <v>2.1398804668338</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>37.00738393995859</v>
       </c>
       <c r="J14">
-        <v>5.307237544605732</v>
+        <v>7.95346935997498</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.58382547805763</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.773095401906491</v>
       </c>
       <c r="M14">
-        <v>19.49053940644205</v>
+        <v>10.18229933039279</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>32.52715408010501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.46520376223484</v>
+        <v>14.85831772210116</v>
       </c>
       <c r="C15">
-        <v>18.94867057383012</v>
+        <v>9.972442133015912</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.542450635806825</v>
+        <v>4.230989878376104</v>
       </c>
       <c r="F15">
-        <v>47.27767602240993</v>
+        <v>50.21910333307343</v>
       </c>
       <c r="G15">
-        <v>2.025340540224894</v>
+        <v>2.140968474436565</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>36.91108024838663</v>
       </c>
       <c r="J15">
-        <v>5.312524237357874</v>
+        <v>7.95507431545117</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.50235237138002</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.767163810466435</v>
       </c>
       <c r="M15">
-        <v>19.37671377344596</v>
+        <v>10.15605183292699</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>32.37428706741819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49582756136214</v>
+        <v>14.39713564919384</v>
       </c>
       <c r="C16">
-        <v>18.29360620613708</v>
+        <v>9.61888269279128</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.418747412422917</v>
+        <v>4.244712831841761</v>
       </c>
       <c r="F16">
-        <v>45.9790889017763</v>
+        <v>49.25697726276299</v>
       </c>
       <c r="G16">
-        <v>2.033579042196041</v>
+        <v>2.147223583082834</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>36.3608981377112</v>
       </c>
       <c r="J16">
-        <v>5.343928534555168</v>
+        <v>7.964312377825457</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.02921055437376</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.734265181607964</v>
       </c>
       <c r="M16">
-        <v>18.71586202830796</v>
+        <v>10.00701607028333</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>31.50268918118194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.8906473544672</v>
+        <v>14.12774543856064</v>
       </c>
       <c r="C17">
-        <v>17.88489574775145</v>
+        <v>9.398058955843693</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.34311009123199</v>
+        <v>4.253719037557769</v>
       </c>
       <c r="F17">
-        <v>45.1827348730307</v>
+        <v>48.66670062740595</v>
       </c>
       <c r="G17">
-        <v>2.038633494621208</v>
+        <v>2.151080982510534</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>36.02488898382493</v>
       </c>
       <c r="J17">
-        <v>5.364138340770105</v>
+        <v>7.970018368128934</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.73328796130608</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.7150508451304</v>
       </c>
       <c r="M17">
-        <v>18.30265094527831</v>
+        <v>9.91683141187684</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.97176119628315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.53859985125587</v>
+        <v>13.97184649674099</v>
       </c>
       <c r="C18">
-        <v>17.64722299217752</v>
+        <v>9.269575467907993</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.299704768442753</v>
+        <v>4.259111053374659</v>
       </c>
       <c r="F18">
-        <v>44.72476151868018</v>
+        <v>48.3272063954081</v>
       </c>
       <c r="G18">
-        <v>2.041542608761303</v>
+        <v>2.153307839112645</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>35.83218127928652</v>
       </c>
       <c r="J18">
-        <v>5.376092830608911</v>
+        <v>7.973315449522232</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.5836732185179</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.704352078500295</v>
       </c>
       <c r="M18">
-        <v>18.06205596834979</v>
+        <v>9.865422950903586</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.6677121983639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.41871224829131</v>
+        <v>13.91889984651898</v>
       </c>
       <c r="C19">
-        <v>17.56629879213025</v>
+        <v>9.225817817439868</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.285026259741294</v>
+        <v>4.260972724085785</v>
       </c>
       <c r="F19">
-        <v>44.56970921078714</v>
+        <v>48.21226607576589</v>
       </c>
       <c r="G19">
-        <v>2.042528076430945</v>
+        <v>2.154063292949052</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>35.76702953242415</v>
       </c>
       <c r="J19">
-        <v>5.380195663373915</v>
+        <v>7.974434468472838</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.53972223714585</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.700789981765982</v>
       </c>
       <c r="M19">
-        <v>17.98008644004657</v>
+        <v>9.848097149233842</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.56498976879544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.95547776345986</v>
+        <v>14.15652148214248</v>
       </c>
       <c r="C20">
-        <v>17.92867041475121</v>
+        <v>9.421717688458802</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.351151711925876</v>
+        <v>4.252738294427467</v>
       </c>
       <c r="F20">
-        <v>45.26750044214452</v>
+        <v>48.72953562786895</v>
       </c>
       <c r="G20">
-        <v>2.038095278806028</v>
+        <v>2.150669526440339</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>36.06060026004639</v>
       </c>
       <c r="J20">
-        <v>5.361952423509567</v>
+        <v>7.969409407920493</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.76500760571833</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.717059664318171</v>
       </c>
       <c r="M20">
-        <v>18.34693956980258</v>
+        <v>9.926383914252035</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.0281409360857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.7123217412775</v>
+        <v>14.98985398866919</v>
       </c>
       <c r="C21">
-        <v>19.1157428980107</v>
+        <v>10.06253448</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.574460580036323</v>
+        <v>4.227632064129805</v>
       </c>
       <c r="F21">
-        <v>47.61307753311531</v>
+        <v>50.46746927119928</v>
       </c>
       <c r="G21">
-        <v>2.023212112706603</v>
+        <v>2.139359064202091</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>37.05359428512224</v>
       </c>
       <c r="J21">
-        <v>5.304722703072957</v>
+        <v>7.952700425030853</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.62278469591194</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.77595919808804</v>
       </c>
       <c r="M21">
-        <v>19.54497273765902</v>
+        <v>10.19490991220638</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>32.6005390177607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.82756316822098</v>
+        <v>15.58278576606757</v>
       </c>
       <c r="C22">
-        <v>19.870164608311</v>
+        <v>10.46886937171492</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.721151375193161</v>
+        <v>4.213201703297148</v>
       </c>
       <c r="F22">
-        <v>49.14775209560278</v>
+        <v>51.60286285190486</v>
       </c>
       <c r="G22">
-        <v>2.013462491496274</v>
+        <v>2.132022319803945</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.70754773593089</v>
       </c>
       <c r="J22">
-        <v>5.270637774311815</v>
+        <v>7.941894752060867</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.16528244531198</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.817657036253006</v>
       </c>
       <c r="M22">
-        <v>20.30323037715273</v>
+        <v>10.37441276940407</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>33.64148012707439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.23523143714357</v>
+        <v>15.2680167792603</v>
       </c>
       <c r="C23">
-        <v>19.46938474175239</v>
+        <v>10.25311014499382</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.642797021877575</v>
+        <v>4.22071763521162</v>
       </c>
       <c r="F23">
-        <v>48.32843250967714</v>
+        <v>50.99694293852824</v>
       </c>
       <c r="G23">
-        <v>2.018670210517771</v>
+        <v>2.135933920918748</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>37.35806012338771</v>
       </c>
       <c r="J23">
-        <v>5.288505825361294</v>
+        <v>7.947652515969096</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.87736113517589</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.795105943774561</v>
       </c>
       <c r="M23">
-        <v>19.90072710927249</v>
+        <v>10.27824703415464</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>33.0846031209539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.92618079738709</v>
+        <v>14.14351501562776</v>
       </c>
       <c r="C24">
-        <v>17.90888831453365</v>
+        <v>9.411026344597261</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.34751584561891</v>
+        <v>4.253181022078477</v>
       </c>
       <c r="F24">
-        <v>45.22917836942064</v>
+        <v>48.70112834094725</v>
       </c>
       <c r="G24">
-        <v>2.038338595659839</v>
+        <v>2.150855516928058</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>36.04445373273977</v>
       </c>
       <c r="J24">
-        <v>5.362939635308748</v>
+        <v>7.969684666813954</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.75067399032277</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.71615039448824</v>
       </c>
       <c r="M24">
-        <v>18.32692614840802</v>
+        <v>9.922063856263206</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.00264796728921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28290930529654</v>
+        <v>12.98954709301688</v>
       </c>
       <c r="C25">
-        <v>16.1257588372931</v>
+        <v>8.446146883746881</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.032932795886078</v>
+        <v>4.296262134511577</v>
       </c>
       <c r="F25">
-        <v>41.88924335672684</v>
+        <v>46.22612839972668</v>
       </c>
       <c r="G25">
-        <v>2.059644633277112</v>
+        <v>2.167271987502814</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>34.64891537149978</v>
       </c>
       <c r="J25">
-        <v>5.455712685195333</v>
+        <v>7.994037756231448</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.77201190137194</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.644435413561193</v>
       </c>
       <c r="M25">
-        <v>16.51681667997138</v>
+        <v>9.555685454233327</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.80760781299387</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.11184803922484</v>
+        <v>15.96712006850333</v>
       </c>
       <c r="C2">
-        <v>7.684005041633085</v>
+        <v>5.549828386289488</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.334529723252903</v>
+        <v>10.01842814961051</v>
       </c>
       <c r="F2">
-        <v>44.41017605952838</v>
+        <v>53.46964407262195</v>
       </c>
       <c r="G2">
-        <v>2.179720270401871</v>
+        <v>3.786699805609232</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.64035216608873</v>
+        <v>40.53025755385092</v>
       </c>
       <c r="J2">
-        <v>8.012568267706536</v>
+        <v>11.31122530482046</v>
       </c>
       <c r="K2">
-        <v>11.05434409805031</v>
+        <v>14.62324852237586</v>
       </c>
       <c r="L2">
-        <v>5.602839866565125</v>
+        <v>10.97786872625303</v>
       </c>
       <c r="M2">
-        <v>9.302025357395369</v>
+        <v>16.56554641144104</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.50205650199159</v>
+        <v>15.92528125975034</v>
       </c>
       <c r="C3">
-        <v>7.15745221526621</v>
+        <v>5.368998870191458</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.364392169854538</v>
+        <v>10.04676511012211</v>
       </c>
       <c r="F3">
-        <v>43.18714178201414</v>
+        <v>53.26135235750908</v>
       </c>
       <c r="G3">
-        <v>2.188419218442518</v>
+        <v>3.789746167686348</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.96932975232206</v>
+        <v>40.39695498833275</v>
       </c>
       <c r="J3">
-        <v>8.025539797023209</v>
+        <v>11.30807998222485</v>
       </c>
       <c r="K3">
-        <v>10.56075795862841</v>
+        <v>14.5857403505834</v>
       </c>
       <c r="L3">
-        <v>5.581448990637132</v>
+        <v>11.00779728507985</v>
       </c>
       <c r="M3">
-        <v>9.140604549350781</v>
+        <v>16.59969193537903</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.12144776440506</v>
+        <v>15.90439230393854</v>
       </c>
       <c r="C4">
-        <v>6.846526652713893</v>
+        <v>5.256257724735225</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.38462262265061</v>
+        <v>10.06530145201455</v>
       </c>
       <c r="F4">
-        <v>42.44145692359388</v>
+        <v>53.14042297342213</v>
       </c>
       <c r="G4">
-        <v>2.193901165453819</v>
+        <v>3.791714337022929</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.56377842055088</v>
+        <v>40.31864716642426</v>
       </c>
       <c r="J4">
-        <v>8.033719314124685</v>
+        <v>11.3061161191312</v>
       </c>
       <c r="K4">
-        <v>10.25510427985092</v>
+        <v>14.56657524734508</v>
       </c>
       <c r="L4">
-        <v>5.571599614840657</v>
+        <v>11.02786579998475</v>
       </c>
       <c r="M4">
-        <v>9.046811335110604</v>
+        <v>16.62386230730682</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.96500862035143</v>
+        <v>15.89709524003171</v>
       </c>
       <c r="C5">
-        <v>6.717064582953021</v>
+        <v>5.209960054319952</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.393337582641999</v>
+        <v>10.07314201078152</v>
       </c>
       <c r="F5">
-        <v>42.13915659091133</v>
+        <v>53.09291833361137</v>
       </c>
       <c r="G5">
-        <v>2.196172035791429</v>
+        <v>3.792541033523725</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.40018944774246</v>
+        <v>40.28763738465576</v>
       </c>
       <c r="J5">
-        <v>8.03710803207203</v>
+        <v>11.30530750189093</v>
       </c>
       <c r="K5">
-        <v>10.13007059061521</v>
+        <v>14.55974368079249</v>
       </c>
       <c r="L5">
-        <v>5.568401218449189</v>
+        <v>11.03646993430003</v>
       </c>
       <c r="M5">
-        <v>9.009948822447461</v>
+        <v>16.63451793202637</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.93895836240205</v>
+        <v>15.89595718685115</v>
       </c>
       <c r="C6">
-        <v>6.695403060119006</v>
+        <v>5.202253249723467</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.394812985354124</v>
+        <v>10.07446127983714</v>
       </c>
       <c r="F6">
-        <v>42.08906235791768</v>
+        <v>53.08513810407518</v>
       </c>
       <c r="G6">
-        <v>2.196551385922252</v>
+        <v>3.792679797277828</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.37312843663346</v>
+        <v>40.28254297420582</v>
       </c>
       <c r="J6">
-        <v>8.037674117692598</v>
+        <v>11.30517272500589</v>
       </c>
       <c r="K6">
-        <v>10.10928556569647</v>
+        <v>14.55866856352305</v>
       </c>
       <c r="L6">
-        <v>5.567919043482152</v>
+        <v>11.03792439176726</v>
       </c>
       <c r="M6">
-        <v>9.003910479049278</v>
+        <v>16.63633597171687</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.11934307101883</v>
+        <v>15.90428896238902</v>
       </c>
       <c r="C7">
-        <v>6.844791755716249</v>
+        <v>5.255634670670475</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.384738255906965</v>
+        <v>10.0654060299352</v>
       </c>
       <c r="F7">
-        <v>42.43737329005027</v>
+        <v>53.13977509160813</v>
       </c>
       <c r="G7">
-        <v>2.193931639700188</v>
+        <v>3.791725386213913</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.56156534407636</v>
+        <v>40.31822529458005</v>
       </c>
       <c r="J7">
-        <v>8.033764789036669</v>
+        <v>11.30610524772539</v>
       </c>
       <c r="K7">
-        <v>10.25341971688078</v>
+        <v>14.56647914534434</v>
       </c>
       <c r="L7">
-        <v>5.571553193621096</v>
+        <v>11.02798011259921</v>
       </c>
       <c r="M7">
-        <v>9.046308665681607</v>
+        <v>16.62400274927644</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.90299763628716</v>
+        <v>15.95170316574197</v>
       </c>
       <c r="C8">
-        <v>7.497815381887604</v>
+        <v>5.487877112029066</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.344429457082122</v>
+        <v>10.02796319459781</v>
       </c>
       <c r="F8">
-        <v>43.9875256069912</v>
+        <v>53.39639513857782</v>
       </c>
       <c r="G8">
-        <v>2.182691409751971</v>
+        <v>3.787729967646257</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.40767346806607</v>
+        <v>40.48356684087562</v>
       </c>
       <c r="J8">
-        <v>8.016997159330238</v>
+        <v>11.31014749383835</v>
       </c>
       <c r="K8">
-        <v>10.88478975869962</v>
+        <v>14.60951770736148</v>
       </c>
       <c r="L8">
-        <v>5.594776347770914</v>
+        <v>10.98783717991471</v>
       </c>
       <c r="M8">
-        <v>9.245276775961141</v>
+        <v>16.57665471359536</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.38287541803409</v>
+        <v>16.08233942707229</v>
       </c>
       <c r="C9">
-        <v>8.779007777303152</v>
+        <v>5.926694219902755</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4.280709860002853</v>
+        <v>9.963523837749797</v>
       </c>
       <c r="F9">
-        <v>47.05926327367182</v>
+        <v>53.95372623192129</v>
       </c>
       <c r="G9">
-        <v>2.161691330321757</v>
+        <v>3.780666154154484</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.11612364583032</v>
+        <v>40.83538082150802</v>
       </c>
       <c r="J9">
-        <v>7.985747004150051</v>
+        <v>11.31782117688103</v>
       </c>
       <c r="K9">
-        <v>12.09603115096547</v>
+        <v>14.72425186525396</v>
       </c>
       <c r="L9">
-        <v>5.666827152242038</v>
+        <v>10.92252120791221</v>
       </c>
       <c r="M9">
-        <v>9.67665619689719</v>
+        <v>16.50922641852971</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.4277446837168</v>
+        <v>16.20060421814579</v>
       </c>
       <c r="C10">
-        <v>9.643882859336488</v>
+        <v>6.235316035821937</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.243714159297651</v>
+        <v>9.921605850134812</v>
       </c>
       <c r="F10">
-        <v>49.32433170623508</v>
+        <v>54.39453536239336</v>
       </c>
       <c r="G10">
-        <v>2.146784478777655</v>
+        <v>3.775940991190958</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>36.39931429842502</v>
+        <v>41.1099445932315</v>
       </c>
       <c r="J10">
-        <v>7.963663272458882</v>
+        <v>11.32331273252736</v>
       </c>
       <c r="K10">
-        <v>13.06269313927953</v>
+        <v>14.82652803653588</v>
       </c>
       <c r="L10">
-        <v>5.736505687325887</v>
+        <v>10.88267355811526</v>
       </c>
       <c r="M10">
-        <v>10.0173690885626</v>
+        <v>16.47516771680518</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.93030774185494</v>
+        <v>16.25907423267379</v>
       </c>
       <c r="C11">
-        <v>10.02174789175942</v>
+        <v>6.372068661094415</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.229145161166778</v>
+        <v>9.903703340956618</v>
       </c>
       <c r="F11">
-        <v>50.35487255016914</v>
+        <v>54.60148947140926</v>
       </c>
       <c r="G11">
-        <v>2.140088455125086</v>
+        <v>3.773891104081758</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>36.98896114303392</v>
+        <v>41.2381725854973</v>
       </c>
       <c r="J11">
-        <v>7.9537761260407</v>
+        <v>11.32578091043337</v>
       </c>
       <c r="K11">
-        <v>13.56826927405558</v>
+        <v>14.87683040990137</v>
       </c>
       <c r="L11">
-        <v>5.771956850012431</v>
+        <v>10.86630646323346</v>
       </c>
       <c r="M11">
-        <v>10.17727470932134</v>
+        <v>16.46302886626013</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.13605242367565</v>
+        <v>16.28187061955351</v>
       </c>
       <c r="C12">
-        <v>10.16268846351861</v>
+        <v>6.423282613389726</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.223966257695132</v>
+        <v>9.897090969119379</v>
       </c>
       <c r="F12">
-        <v>50.74504155062062</v>
+        <v>54.68074647296852</v>
       </c>
       <c r="G12">
-        <v>2.137562536318288</v>
+        <v>3.773129099660902</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.21309856361211</v>
+        <v>41.28719170154411</v>
       </c>
       <c r="J12">
-        <v>7.9500520211924</v>
+        <v>11.32671136263605</v>
       </c>
       <c r="K12">
-        <v>13.75660361714065</v>
+        <v>14.8964091971123</v>
       </c>
       <c r="L12">
-        <v>5.785930302643473</v>
+        <v>10.86036115665057</v>
       </c>
       <c r="M12">
-        <v>10.2385155594424</v>
+        <v>16.45891380313224</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.09188399177488</v>
+        <v>16.27693215220109</v>
       </c>
       <c r="C13">
-        <v>10.13242842116486</v>
+        <v>6.41227888529327</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4.225066363312161</v>
+        <v>9.898507650196549</v>
       </c>
       <c r="F13">
-        <v>50.66101604606764</v>
+        <v>54.66363816098892</v>
       </c>
       <c r="G13">
-        <v>2.138106148772321</v>
+        <v>3.773292578753894</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.16478850494513</v>
+        <v>41.27661428306519</v>
       </c>
       <c r="J13">
-        <v>7.950853237108404</v>
+        <v>11.32651115779384</v>
       </c>
       <c r="K13">
-        <v>13.71617928212246</v>
+        <v>14.89216917781454</v>
       </c>
       <c r="L13">
-        <v>5.782896312815586</v>
+        <v>10.86163036036685</v>
       </c>
       <c r="M13">
-        <v>10.22529588885822</v>
+        <v>16.45977864716638</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.94729876714579</v>
+        <v>16.26093667589063</v>
       </c>
       <c r="C14">
-        <v>10.0333856720116</v>
+        <v>6.376293768153879</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4.228712232814099</v>
+        <v>9.903155996246381</v>
       </c>
       <c r="F14">
-        <v>50.38697387456795</v>
+        <v>54.60799240972949</v>
       </c>
       <c r="G14">
-        <v>2.1398804668338</v>
+        <v>3.77382812852348</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.00738393995859</v>
+        <v>41.24219625663591</v>
       </c>
       <c r="J14">
-        <v>7.95346935997498</v>
+        <v>11.32585754268525</v>
       </c>
       <c r="K14">
-        <v>13.58382547805763</v>
+        <v>14.87843061484399</v>
       </c>
       <c r="L14">
-        <v>5.773095401906491</v>
+        <v>10.86581228057692</v>
       </c>
       <c r="M14">
-        <v>10.18229933039279</v>
+        <v>16.46268066919371</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.85831772210116</v>
+        <v>16.25122378085993</v>
       </c>
       <c r="C15">
-        <v>9.972442133015912</v>
+        <v>6.354176118279152</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.230989878376104</v>
+        <v>9.906024957381506</v>
       </c>
       <c r="F15">
-        <v>50.21910333307343</v>
+        <v>54.57402231677072</v>
       </c>
       <c r="G15">
-        <v>2.140968474436565</v>
+        <v>3.774158020730642</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>36.91108024838663</v>
+        <v>41.22117387908479</v>
       </c>
       <c r="J15">
-        <v>7.95507431545117</v>
+        <v>11.32545664184686</v>
       </c>
       <c r="K15">
-        <v>13.50235237138002</v>
+        <v>14.87008402686828</v>
       </c>
       <c r="L15">
-        <v>5.767163810466435</v>
+        <v>10.86840670276133</v>
       </c>
       <c r="M15">
-        <v>10.15605183292699</v>
+        <v>16.46452094287529</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.39713564919384</v>
+        <v>16.19687566178715</v>
       </c>
       <c r="C16">
-        <v>9.61888269279128</v>
+        <v>6.22630146293523</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.244712831841761</v>
+        <v>9.922799221373115</v>
       </c>
       <c r="F16">
-        <v>49.25697726276299</v>
+        <v>54.38113669647295</v>
       </c>
       <c r="G16">
-        <v>2.147223583082834</v>
+        <v>3.776076953678503</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>36.3608981377112</v>
+        <v>41.1016301539723</v>
       </c>
       <c r="J16">
-        <v>7.964312377825457</v>
+        <v>11.32315083831871</v>
       </c>
       <c r="K16">
-        <v>13.02921055437376</v>
+        <v>14.82331558639775</v>
       </c>
       <c r="L16">
-        <v>5.734265181607964</v>
+        <v>10.88377855550028</v>
       </c>
       <c r="M16">
-        <v>10.00701607028333</v>
+        <v>16.47602846356744</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.12774543856064</v>
+        <v>16.16471972082364</v>
       </c>
       <c r="C17">
-        <v>9.398058955843693</v>
+        <v>6.14688630479047</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.253719037557769</v>
+        <v>9.933387823476943</v>
       </c>
       <c r="F17">
-        <v>48.66670062740595</v>
+        <v>54.26442855848048</v>
       </c>
       <c r="G17">
-        <v>2.151080982510534</v>
+        <v>3.777279612488261</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.02488898382493</v>
+        <v>41.02913468130874</v>
       </c>
       <c r="J17">
-        <v>7.970018368128934</v>
+        <v>11.32172871184679</v>
       </c>
       <c r="K17">
-        <v>12.73328796130608</v>
+        <v>14.79558316433264</v>
       </c>
       <c r="L17">
-        <v>5.7150508451304</v>
+        <v>10.89365906481605</v>
       </c>
       <c r="M17">
-        <v>9.91683141187684</v>
+        <v>16.48394668055682</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.97184649674099</v>
+        <v>16.14666517953215</v>
       </c>
       <c r="C18">
-        <v>9.269575467907993</v>
+        <v>6.100868604841817</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.259111053374659</v>
+        <v>9.939587921002078</v>
       </c>
       <c r="F18">
-        <v>48.3272063954081</v>
+        <v>54.19790841559551</v>
       </c>
       <c r="G18">
-        <v>2.153307839112645</v>
+        <v>3.777980730904956</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.83218127928652</v>
+        <v>40.98775144547556</v>
       </c>
       <c r="J18">
-        <v>7.973315449522232</v>
+        <v>11.32090791577588</v>
       </c>
       <c r="K18">
-        <v>12.5836732185179</v>
+        <v>14.77998848153717</v>
       </c>
       <c r="L18">
-        <v>5.704352078500295</v>
+        <v>10.89950774401801</v>
       </c>
       <c r="M18">
-        <v>9.865422950903586</v>
+        <v>16.4888168363345</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.91889984651898</v>
+        <v>16.14062839968159</v>
       </c>
       <c r="C19">
-        <v>9.225817817439868</v>
+        <v>6.085230913978473</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.260972724085785</v>
+        <v>9.941706051906868</v>
       </c>
       <c r="F19">
-        <v>48.21226607576589</v>
+        <v>54.17549122364937</v>
       </c>
       <c r="G19">
-        <v>2.154063292949052</v>
+        <v>3.778219731200336</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.76702953242415</v>
+        <v>40.97379425632747</v>
       </c>
       <c r="J19">
-        <v>7.974434468472838</v>
+        <v>11.32062951933393</v>
       </c>
       <c r="K19">
-        <v>12.53972223714585</v>
+        <v>14.77476995159553</v>
       </c>
       <c r="L19">
-        <v>5.700789981765982</v>
+        <v>10.9015164755602</v>
       </c>
       <c r="M19">
-        <v>9.848097149233842</v>
+        <v>16.49052004734655</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.15652148214248</v>
+        <v>16.16809728081453</v>
       </c>
       <c r="C20">
-        <v>9.421717688458802</v>
+        <v>6.155375756037818</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4.252738294427467</v>
+        <v>9.932249289062788</v>
       </c>
       <c r="F20">
-        <v>48.72953562786895</v>
+        <v>54.27678974541744</v>
       </c>
       <c r="G20">
-        <v>2.150669526440339</v>
+        <v>3.777150617110561</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>36.06060026004639</v>
+        <v>41.03681954289148</v>
       </c>
       <c r="J20">
-        <v>7.969409407920493</v>
+        <v>11.32188039134487</v>
       </c>
       <c r="K20">
-        <v>12.76500760571833</v>
+        <v>14.79849854417657</v>
       </c>
       <c r="L20">
-        <v>5.717059664318171</v>
+        <v>10.89259012495524</v>
       </c>
       <c r="M20">
-        <v>9.926383914252035</v>
+        <v>16.4830710929278</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.98985398866919</v>
+        <v>16.26561729481132</v>
       </c>
       <c r="C21">
-        <v>10.06253448</v>
+        <v>6.386879328553231</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>4.227632064129805</v>
+        <v>9.901786140332923</v>
       </c>
       <c r="F21">
-        <v>50.46746927119928</v>
+        <v>54.62431311333658</v>
       </c>
       <c r="G21">
-        <v>2.139359064202091</v>
+        <v>3.773670438656684</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.05359428512224</v>
+        <v>41.25229326325258</v>
       </c>
       <c r="J21">
-        <v>7.952700425030853</v>
+        <v>11.32604963818481</v>
       </c>
       <c r="K21">
-        <v>13.62278469591194</v>
+        <v>14.88245167511617</v>
       </c>
       <c r="L21">
-        <v>5.77595919808804</v>
+        <v>10.86457709896816</v>
       </c>
       <c r="M21">
-        <v>10.19490991220638</v>
+        <v>16.46181520959244</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.58278576606757</v>
+        <v>16.33316196386678</v>
       </c>
       <c r="C22">
-        <v>10.46886937171492</v>
+        <v>6.534831832189682</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4.213201703297148</v>
+        <v>9.882849293287951</v>
       </c>
       <c r="F22">
-        <v>51.60286285190486</v>
+        <v>54.85659763928683</v>
       </c>
       <c r="G22">
-        <v>2.132022319803945</v>
+        <v>3.771478924725908</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.70754773593089</v>
+        <v>41.39580227389887</v>
       </c>
       <c r="J22">
-        <v>7.941894752060867</v>
+        <v>11.32875009251551</v>
       </c>
       <c r="K22">
-        <v>14.16528244531198</v>
+        <v>14.94040481292037</v>
       </c>
       <c r="L22">
-        <v>5.817657036253006</v>
+        <v>10.84774082101375</v>
       </c>
       <c r="M22">
-        <v>10.37441276940407</v>
+        <v>16.45073027070872</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.2680167792603</v>
+        <v>16.29676929133194</v>
       </c>
       <c r="C23">
-        <v>10.25311014499382</v>
+        <v>6.456187605482631</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>4.22071763521162</v>
+        <v>9.892867508378215</v>
       </c>
       <c r="F23">
-        <v>50.99694293852824</v>
+        <v>54.73216344550816</v>
       </c>
       <c r="G23">
-        <v>2.135933920918748</v>
+        <v>3.772641010537643</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.35806012338771</v>
+        <v>41.31896883144262</v>
       </c>
       <c r="J23">
-        <v>7.947652515969096</v>
+        <v>11.3273110035165</v>
       </c>
       <c r="K23">
-        <v>13.87736113517589</v>
+        <v>14.90919627548003</v>
       </c>
       <c r="L23">
-        <v>5.795105943774561</v>
+        <v>10.85659215347193</v>
       </c>
       <c r="M23">
-        <v>10.27824703415464</v>
+        <v>16.45638995256838</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.14351501562776</v>
+        <v>16.16656893802262</v>
       </c>
       <c r="C24">
-        <v>9.411026344597261</v>
+        <v>6.15153879548502</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4.253181022078477</v>
+        <v>9.932763669789308</v>
       </c>
       <c r="F24">
-        <v>48.70112834094725</v>
+        <v>54.27119945296901</v>
       </c>
       <c r="G24">
-        <v>2.150855516928058</v>
+        <v>3.777208905719282</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36.04445373273977</v>
+        <v>41.03334429560653</v>
       </c>
       <c r="J24">
-        <v>7.969684666813954</v>
+        <v>11.32181182700429</v>
       </c>
       <c r="K24">
-        <v>12.75067399032277</v>
+        <v>14.79717941273187</v>
       </c>
       <c r="L24">
-        <v>5.71615039448824</v>
+        <v>10.89307286858099</v>
       </c>
       <c r="M24">
-        <v>9.922063856263206</v>
+        <v>16.48346595592707</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.98954709301688</v>
+        <v>16.04303118248624</v>
       </c>
       <c r="C25">
-        <v>8.446146883746881</v>
+        <v>5.810160408386474</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.296262134511577</v>
+        <v>9.979999837921753</v>
       </c>
       <c r="F25">
-        <v>46.22612839972668</v>
+        <v>53.7973239460194</v>
       </c>
       <c r="G25">
-        <v>2.167271987502814</v>
+        <v>3.782495113820483</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.64891537149978</v>
+        <v>40.73732497508423</v>
       </c>
       <c r="J25">
-        <v>7.994037756231448</v>
+        <v>11.31577150574073</v>
       </c>
       <c r="K25">
-        <v>11.77201190137194</v>
+        <v>14.69001443748026</v>
       </c>
       <c r="L25">
-        <v>5.644435413561193</v>
+        <v>10.93875911531207</v>
       </c>
       <c r="M25">
-        <v>9.555685454233327</v>
+        <v>16.52474721210239</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.96712006850333</v>
+        <v>12.11184803922484</v>
       </c>
       <c r="C2">
-        <v>5.549828386289488</v>
+        <v>7.684005041633108</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.01842814961051</v>
+        <v>4.33452972325277</v>
       </c>
       <c r="F2">
-        <v>53.46964407262195</v>
+        <v>44.41017605952823</v>
       </c>
       <c r="G2">
-        <v>3.786699805609232</v>
+        <v>2.179720270402006</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>40.53025755385092</v>
+        <v>33.6403521660886</v>
       </c>
       <c r="J2">
-        <v>11.31122530482046</v>
+        <v>8.012568267706483</v>
       </c>
       <c r="K2">
-        <v>14.62324852237586</v>
+        <v>11.05434409805029</v>
       </c>
       <c r="L2">
-        <v>10.97786872625303</v>
+        <v>5.602839866565039</v>
       </c>
       <c r="M2">
-        <v>16.56554641144104</v>
+        <v>9.302025357395307</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.92528125975034</v>
+        <v>11.50205650199156</v>
       </c>
       <c r="C3">
-        <v>5.368998870191458</v>
+        <v>7.157452215266205</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.04676511012211</v>
+        <v>4.364392169854593</v>
       </c>
       <c r="F3">
-        <v>53.26135235750908</v>
+        <v>43.18714178201417</v>
       </c>
       <c r="G3">
-        <v>3.789746167686348</v>
+        <v>2.188419218442523</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>40.39695498833275</v>
+        <v>32.96932975232203</v>
       </c>
       <c r="J3">
-        <v>11.30807998222485</v>
+        <v>8.02553979702318</v>
       </c>
       <c r="K3">
-        <v>14.5857403505834</v>
+        <v>10.56075795862838</v>
       </c>
       <c r="L3">
-        <v>11.00779728507985</v>
+        <v>5.581448990637194</v>
       </c>
       <c r="M3">
-        <v>16.59969193537903</v>
+        <v>9.140604549350776</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.90439230393854</v>
+        <v>11.12144776440506</v>
       </c>
       <c r="C4">
-        <v>5.256257724735225</v>
+        <v>6.846526652713919</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.06530145201455</v>
+        <v>4.38462262265048</v>
       </c>
       <c r="F4">
-        <v>53.14042297342213</v>
+        <v>42.44145692359402</v>
       </c>
       <c r="G4">
-        <v>3.791714337022929</v>
+        <v>2.193901165453817</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>40.31864716642426</v>
+        <v>32.56377842055097</v>
       </c>
       <c r="J4">
-        <v>11.3061161191312</v>
+        <v>8.033719314124628</v>
       </c>
       <c r="K4">
-        <v>14.56657524734508</v>
+        <v>10.25510427985093</v>
       </c>
       <c r="L4">
-        <v>11.02786579998475</v>
+        <v>5.571599614840626</v>
       </c>
       <c r="M4">
-        <v>16.62386230730682</v>
+        <v>9.046811335110586</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.89709524003171</v>
+        <v>10.96500862035139</v>
       </c>
       <c r="C5">
-        <v>5.209960054319952</v>
+        <v>6.717064582953022</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.07314201078152</v>
+        <v>4.393337582641928</v>
       </c>
       <c r="F5">
-        <v>53.09291833361137</v>
+        <v>42.13915659091133</v>
       </c>
       <c r="G5">
-        <v>3.792541033523725</v>
+        <v>2.196172035791295</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>40.28763738465576</v>
+        <v>32.40018944774243</v>
       </c>
       <c r="J5">
-        <v>11.30530750189093</v>
+        <v>8.037108032071858</v>
       </c>
       <c r="K5">
-        <v>14.55974368079249</v>
+        <v>10.13007059061515</v>
       </c>
       <c r="L5">
-        <v>11.03646993430003</v>
+        <v>5.568401218449119</v>
       </c>
       <c r="M5">
-        <v>16.63451793202637</v>
+        <v>9.009948822447338</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.89595718685115</v>
+        <v>10.93895836240206</v>
       </c>
       <c r="C6">
-        <v>5.202253249723467</v>
+        <v>6.695403060118976</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.07446127983714</v>
+        <v>4.394812985354189</v>
       </c>
       <c r="F6">
-        <v>53.08513810407518</v>
+        <v>42.08906235791779</v>
       </c>
       <c r="G6">
-        <v>3.792679797277828</v>
+        <v>2.196551385922254</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>40.28254297420582</v>
+        <v>32.37312843663347</v>
       </c>
       <c r="J6">
-        <v>11.30517272500589</v>
+        <v>8.037674117692561</v>
       </c>
       <c r="K6">
-        <v>14.55866856352305</v>
+        <v>10.1092855656965</v>
       </c>
       <c r="L6">
-        <v>11.03792439176726</v>
+        <v>5.567919043482233</v>
       </c>
       <c r="M6">
-        <v>16.63633597171687</v>
+        <v>9.003910479049321</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.90428896238902</v>
+        <v>11.11934307101886</v>
       </c>
       <c r="C7">
-        <v>5.255634670670475</v>
+        <v>6.844791755716241</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.0654060299352</v>
+        <v>4.384738255906964</v>
       </c>
       <c r="F7">
-        <v>53.13977509160813</v>
+        <v>42.43737329005047</v>
       </c>
       <c r="G7">
-        <v>3.791725386213913</v>
+        <v>2.193931639700322</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>40.31822529458005</v>
+        <v>32.56156534407656</v>
       </c>
       <c r="J7">
-        <v>11.30610524772539</v>
+        <v>8.033764789036711</v>
       </c>
       <c r="K7">
-        <v>14.56647914534434</v>
+        <v>10.25341971688082</v>
       </c>
       <c r="L7">
-        <v>11.02798011259921</v>
+        <v>5.571553193621062</v>
       </c>
       <c r="M7">
-        <v>16.62400274927644</v>
+        <v>9.046308665681629</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.95170316574197</v>
+        <v>11.90299763628716</v>
       </c>
       <c r="C8">
-        <v>5.487877112029066</v>
+        <v>7.497815381887622</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.02796319459781</v>
+        <v>4.344429457082127</v>
       </c>
       <c r="F8">
-        <v>53.39639513857782</v>
+        <v>43.98752560699121</v>
       </c>
       <c r="G8">
-        <v>3.787729967646257</v>
+        <v>2.182691409751842</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>40.48356684087562</v>
+        <v>33.40767346806614</v>
       </c>
       <c r="J8">
-        <v>11.31014749383835</v>
+        <v>8.0169971593303</v>
       </c>
       <c r="K8">
-        <v>14.60951770736148</v>
+        <v>10.88478975869963</v>
       </c>
       <c r="L8">
-        <v>10.98783717991471</v>
+        <v>5.594776347770917</v>
       </c>
       <c r="M8">
-        <v>16.57665471359536</v>
+        <v>9.245276775961171</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.08233942707229</v>
+        <v>13.38287541803408</v>
       </c>
       <c r="C9">
-        <v>5.926694219902755</v>
+        <v>8.779007777303018</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.963523837749797</v>
+        <v>4.280709860002782</v>
       </c>
       <c r="F9">
-        <v>53.95372623192129</v>
+        <v>47.05926327367184</v>
       </c>
       <c r="G9">
-        <v>3.780666154154484</v>
+        <v>2.161691330321766</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>40.83538082150802</v>
+        <v>35.11612364583026</v>
       </c>
       <c r="J9">
-        <v>11.31782117688103</v>
+        <v>7.985747004149902</v>
       </c>
       <c r="K9">
-        <v>14.72425186525396</v>
+        <v>12.09603115096546</v>
       </c>
       <c r="L9">
-        <v>10.92252120791221</v>
+        <v>5.66682715224202</v>
       </c>
       <c r="M9">
-        <v>16.50922641852971</v>
+        <v>9.676656196897172</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20060421814579</v>
+        <v>14.42774468371681</v>
       </c>
       <c r="C10">
-        <v>6.235316035821937</v>
+        <v>9.643882859336502</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.921605850134812</v>
+        <v>4.243714159297575</v>
       </c>
       <c r="F10">
-        <v>54.39453536239336</v>
+        <v>49.32433170623514</v>
       </c>
       <c r="G10">
-        <v>3.775940991190958</v>
+        <v>2.146784478777387</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>41.1099445932315</v>
+        <v>36.39931429842515</v>
       </c>
       <c r="J10">
-        <v>11.32331273252736</v>
+        <v>7.963663272458891</v>
       </c>
       <c r="K10">
-        <v>14.82652803653588</v>
+        <v>13.06269313927952</v>
       </c>
       <c r="L10">
-        <v>10.88267355811526</v>
+        <v>5.736505687325796</v>
       </c>
       <c r="M10">
-        <v>16.47516771680518</v>
+        <v>10.01736908856257</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.25907423267379</v>
+        <v>14.93030774185487</v>
       </c>
       <c r="C11">
-        <v>6.372068661094415</v>
+        <v>10.02174789175934</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.903703340956618</v>
+        <v>4.22914516116665</v>
       </c>
       <c r="F11">
-        <v>54.60148947140926</v>
+        <v>50.35487255016918</v>
       </c>
       <c r="G11">
-        <v>3.773891104081758</v>
+        <v>2.140088455124956</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>41.2381725854973</v>
+        <v>36.98896114303401</v>
       </c>
       <c r="J11">
-        <v>11.32578091043337</v>
+        <v>7.9537761260407</v>
       </c>
       <c r="K11">
-        <v>14.87683040990137</v>
+        <v>13.56826927405547</v>
       </c>
       <c r="L11">
-        <v>10.86630646323346</v>
+        <v>5.771956850012369</v>
       </c>
       <c r="M11">
-        <v>16.46302886626013</v>
+        <v>10.1772747093214</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.28187061955351</v>
+        <v>15.13605242367565</v>
       </c>
       <c r="C12">
-        <v>6.423282613389726</v>
+        <v>10.16268846351876</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.897090969119379</v>
+        <v>4.223966257695257</v>
       </c>
       <c r="F12">
-        <v>54.68074647296852</v>
+        <v>50.74504155062073</v>
       </c>
       <c r="G12">
-        <v>3.773129099660902</v>
+        <v>2.137562536318553</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>41.28719170154411</v>
+        <v>37.21309856361218</v>
       </c>
       <c r="J12">
-        <v>11.32671136263605</v>
+        <v>7.950052021192347</v>
       </c>
       <c r="K12">
-        <v>14.8964091971123</v>
+        <v>13.75660361714069</v>
       </c>
       <c r="L12">
-        <v>10.86036115665057</v>
+        <v>5.785930302643486</v>
       </c>
       <c r="M12">
-        <v>16.45891380313224</v>
+        <v>10.2385155594424</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.27693215220109</v>
+        <v>15.09188399177476</v>
       </c>
       <c r="C13">
-        <v>6.41227888529327</v>
+        <v>10.1324284211648</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.898507650196549</v>
+        <v>4.22506636331223</v>
       </c>
       <c r="F13">
-        <v>54.66363816098892</v>
+        <v>50.66101604606765</v>
       </c>
       <c r="G13">
-        <v>3.773292578753894</v>
+        <v>2.138106148772323</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>41.27661428306519</v>
+        <v>37.16478850494517</v>
       </c>
       <c r="J13">
-        <v>11.32651115779384</v>
+        <v>7.950853237108417</v>
       </c>
       <c r="K13">
-        <v>14.89216917781454</v>
+        <v>13.71617928212234</v>
       </c>
       <c r="L13">
-        <v>10.86163036036685</v>
+        <v>5.782896312815593</v>
       </c>
       <c r="M13">
-        <v>16.45977864716638</v>
+        <v>10.22529588885829</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.26093667589063</v>
+        <v>14.94729876714583</v>
       </c>
       <c r="C14">
-        <v>6.376293768153879</v>
+        <v>10.03338567201152</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.903155996246381</v>
+        <v>4.228712232814219</v>
       </c>
       <c r="F14">
-        <v>54.60799240972949</v>
+        <v>50.38697387456808</v>
       </c>
       <c r="G14">
-        <v>3.77382812852348</v>
+        <v>2.139880466833138</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>41.24219625663591</v>
+        <v>37.00738393995866</v>
       </c>
       <c r="J14">
-        <v>11.32585754268525</v>
+        <v>7.953469359974936</v>
       </c>
       <c r="K14">
-        <v>14.87843061484399</v>
+        <v>13.58382547805764</v>
       </c>
       <c r="L14">
-        <v>10.86581228057692</v>
+        <v>5.7730954019065</v>
       </c>
       <c r="M14">
-        <v>16.46268066919371</v>
+        <v>10.18229933039277</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.25122378085993</v>
+        <v>14.85831772210113</v>
       </c>
       <c r="C15">
-        <v>6.354176118279152</v>
+        <v>9.972442133015974</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.906024957381506</v>
+        <v>4.230989878376156</v>
       </c>
       <c r="F15">
-        <v>54.57402231677072</v>
+        <v>50.21910333307359</v>
       </c>
       <c r="G15">
-        <v>3.774158020730642</v>
+        <v>2.14096847443631</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>41.22117387908479</v>
+        <v>36.91108024838676</v>
       </c>
       <c r="J15">
-        <v>11.32545664184686</v>
+        <v>7.955074315451226</v>
       </c>
       <c r="K15">
-        <v>14.87008402686828</v>
+        <v>13.50235237138006</v>
       </c>
       <c r="L15">
-        <v>10.86840670276133</v>
+        <v>5.767163810466438</v>
       </c>
       <c r="M15">
-        <v>16.46452094287529</v>
+        <v>10.15605183292697</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.19687566178715</v>
+        <v>14.39713564919383</v>
       </c>
       <c r="C16">
-        <v>6.22630146293523</v>
+        <v>9.618882692791452</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.922799221373115</v>
+        <v>4.244712831841814</v>
       </c>
       <c r="F16">
-        <v>54.38113669647295</v>
+        <v>49.25697726276299</v>
       </c>
       <c r="G16">
-        <v>3.776076953678503</v>
+        <v>2.147223583082829</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>41.1016301539723</v>
+        <v>36.36089813771119</v>
       </c>
       <c r="J16">
-        <v>11.32315083831871</v>
+        <v>7.964312377825393</v>
       </c>
       <c r="K16">
-        <v>14.82331558639775</v>
+        <v>13.02921055437381</v>
       </c>
       <c r="L16">
-        <v>10.88377855550028</v>
+        <v>5.734265181607926</v>
       </c>
       <c r="M16">
-        <v>16.47602846356744</v>
+        <v>10.00701607028329</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.16471972082364</v>
+        <v>14.12774543856065</v>
       </c>
       <c r="C17">
-        <v>6.14688630479047</v>
+        <v>9.398058955843659</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.933387823476943</v>
+        <v>4.253719037557771</v>
       </c>
       <c r="F17">
-        <v>54.26442855848048</v>
+        <v>48.66670062740607</v>
       </c>
       <c r="G17">
-        <v>3.777279612488261</v>
+        <v>2.151080982510531</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.02913468130874</v>
+        <v>36.0248889838251</v>
       </c>
       <c r="J17">
-        <v>11.32172871184679</v>
+        <v>7.970018368129058</v>
       </c>
       <c r="K17">
-        <v>14.79558316433264</v>
+        <v>12.73328796130607</v>
       </c>
       <c r="L17">
-        <v>10.89365906481605</v>
+        <v>5.715050845130427</v>
       </c>
       <c r="M17">
-        <v>16.48394668055682</v>
+        <v>9.916831411876883</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.14666517953215</v>
+        <v>13.97184649674098</v>
       </c>
       <c r="C18">
-        <v>6.100868604841817</v>
+        <v>9.269575467907977</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.939587921002078</v>
+        <v>4.259111053374707</v>
       </c>
       <c r="F18">
-        <v>54.19790841559551</v>
+        <v>48.3272063954083</v>
       </c>
       <c r="G18">
-        <v>3.777980730904956</v>
+        <v>2.153307839112381</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>40.98775144547556</v>
+        <v>35.83218127928659</v>
       </c>
       <c r="J18">
-        <v>11.32090791577588</v>
+        <v>7.973315449522134</v>
       </c>
       <c r="K18">
-        <v>14.77998848153717</v>
+        <v>12.58367321851789</v>
       </c>
       <c r="L18">
-        <v>10.89950774401801</v>
+        <v>5.704352078500354</v>
       </c>
       <c r="M18">
-        <v>16.4888168363345</v>
+        <v>9.865422950903541</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.14062839968159</v>
+        <v>13.91889984651899</v>
       </c>
       <c r="C19">
-        <v>6.085230913978473</v>
+        <v>9.225817817440053</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.941706051906868</v>
+        <v>4.260972724085979</v>
       </c>
       <c r="F19">
-        <v>54.17549122364937</v>
+        <v>48.21226607576592</v>
       </c>
       <c r="G19">
-        <v>3.778219731200336</v>
+        <v>2.154063292949047</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40.97379425632747</v>
+        <v>35.7670295324242</v>
       </c>
       <c r="J19">
-        <v>11.32062951933393</v>
+        <v>7.974434468472838</v>
       </c>
       <c r="K19">
-        <v>14.77476995159553</v>
+        <v>12.53972223714584</v>
       </c>
       <c r="L19">
-        <v>10.9015164755602</v>
+        <v>5.700789981765984</v>
       </c>
       <c r="M19">
-        <v>16.49052004734655</v>
+        <v>9.848097149233848</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.16809728081453</v>
+        <v>14.1565214821425</v>
       </c>
       <c r="C20">
-        <v>6.155375756037818</v>
+        <v>9.421717688458662</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.932249289062788</v>
+        <v>4.252738294427544</v>
       </c>
       <c r="F20">
-        <v>54.27678974541744</v>
+        <v>48.72953562786898</v>
       </c>
       <c r="G20">
-        <v>3.777150617110561</v>
+        <v>2.150669526439677</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.03681954289148</v>
+        <v>36.06060026004645</v>
       </c>
       <c r="J20">
-        <v>11.32188039134487</v>
+        <v>7.969409407920609</v>
       </c>
       <c r="K20">
-        <v>14.79849854417657</v>
+        <v>12.76500760571819</v>
       </c>
       <c r="L20">
-        <v>10.89259012495524</v>
+        <v>5.717059664318258</v>
       </c>
       <c r="M20">
-        <v>16.4830710929278</v>
+        <v>9.926383914252133</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.26561729481132</v>
+        <v>14.98985398866913</v>
       </c>
       <c r="C21">
-        <v>6.386879328553231</v>
+        <v>10.06253448000003</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.901786140332923</v>
+        <v>4.2276320641298</v>
       </c>
       <c r="F21">
-        <v>54.62431311333658</v>
+        <v>50.46746927119946</v>
       </c>
       <c r="G21">
-        <v>3.773670438656684</v>
+        <v>2.139359064201696</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>41.25229326325258</v>
+        <v>37.05359428512244</v>
       </c>
       <c r="J21">
-        <v>11.32604963818481</v>
+        <v>7.952700425030897</v>
       </c>
       <c r="K21">
-        <v>14.88245167511617</v>
+        <v>13.62278469591192</v>
       </c>
       <c r="L21">
-        <v>10.86457709896816</v>
+        <v>5.775959198087998</v>
       </c>
       <c r="M21">
-        <v>16.46181520959244</v>
+        <v>10.19490991220639</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.33316196386678</v>
+        <v>15.58278576606753</v>
       </c>
       <c r="C22">
-        <v>6.534831832189682</v>
+        <v>10.468869371715</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.882849293287951</v>
+        <v>4.213201703297143</v>
       </c>
       <c r="F22">
-        <v>54.85659763928683</v>
+        <v>51.6028628519049</v>
       </c>
       <c r="G22">
-        <v>3.771478924725908</v>
+        <v>2.132022319803937</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>41.39580227389887</v>
+        <v>37.70754773593097</v>
       </c>
       <c r="J22">
-        <v>11.32875009251551</v>
+        <v>7.941894752060924</v>
       </c>
       <c r="K22">
-        <v>14.94040481292037</v>
+        <v>14.16528244531198</v>
       </c>
       <c r="L22">
-        <v>10.84774082101375</v>
+        <v>5.817657036252952</v>
       </c>
       <c r="M22">
-        <v>16.45073027070872</v>
+        <v>10.37441276940406</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.29676929133194</v>
+        <v>15.26801677926034</v>
       </c>
       <c r="C23">
-        <v>6.456187605482631</v>
+        <v>10.25311014499374</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.892867508378215</v>
+        <v>4.220717635211681</v>
       </c>
       <c r="F23">
-        <v>54.73216344550816</v>
+        <v>50.99694293852831</v>
       </c>
       <c r="G23">
-        <v>3.772641010537643</v>
+        <v>2.135933920918879</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>41.31896883144262</v>
+        <v>37.35806012338774</v>
       </c>
       <c r="J23">
-        <v>11.3273110035165</v>
+        <v>7.947652515969017</v>
       </c>
       <c r="K23">
-        <v>14.90919627548003</v>
+        <v>13.87736113517594</v>
       </c>
       <c r="L23">
-        <v>10.85659215347193</v>
+        <v>5.79510594377459</v>
       </c>
       <c r="M23">
-        <v>16.45638995256838</v>
+        <v>10.27824703415462</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.16656893802262</v>
+        <v>14.14351501562776</v>
       </c>
       <c r="C24">
-        <v>6.15153879548502</v>
+        <v>9.411026344597353</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.932763669789308</v>
+        <v>4.253181022078594</v>
       </c>
       <c r="F24">
-        <v>54.27119945296901</v>
+        <v>48.70112834094728</v>
       </c>
       <c r="G24">
-        <v>3.777208905719282</v>
+        <v>2.150855516928185</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.03334429560653</v>
+        <v>36.04445373273981</v>
       </c>
       <c r="J24">
-        <v>11.32181182700429</v>
+        <v>7.969684666814005</v>
       </c>
       <c r="K24">
-        <v>14.79717941273187</v>
+        <v>12.75067399032283</v>
       </c>
       <c r="L24">
-        <v>10.89307286858099</v>
+        <v>5.71615039448825</v>
       </c>
       <c r="M24">
-        <v>16.48346595592707</v>
+        <v>9.922063856263167</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.04303118248624</v>
+        <v>12.98954709301687</v>
       </c>
       <c r="C25">
-        <v>5.810160408386474</v>
+        <v>8.44614688374681</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.979999837921753</v>
+        <v>4.29626213451151</v>
       </c>
       <c r="F25">
-        <v>53.7973239460194</v>
+        <v>46.22612839972681</v>
       </c>
       <c r="G25">
-        <v>3.782495113820483</v>
+        <v>2.167271987502683</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.73732497508423</v>
+        <v>34.64891537149991</v>
       </c>
       <c r="J25">
-        <v>11.31577150574073</v>
+        <v>7.994037756231398</v>
       </c>
       <c r="K25">
-        <v>14.69001443748026</v>
+        <v>11.77201190137193</v>
       </c>
       <c r="L25">
-        <v>10.93875911531207</v>
+        <v>5.644435413561159</v>
       </c>
       <c r="M25">
-        <v>16.52474721210239</v>
+        <v>9.55568545423333</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.11184803922484</v>
+        <v>20.20835292158024</v>
       </c>
       <c r="C2">
-        <v>7.684005041633108</v>
+        <v>15.25748146787119</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.33452972325277</v>
+        <v>18.11917828426963</v>
       </c>
       <c r="F2">
-        <v>44.41017605952823</v>
+        <v>28.41059347729549</v>
       </c>
       <c r="G2">
-        <v>2.179720270402006</v>
+        <v>14.72861460467513</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.644855346949359</v>
       </c>
       <c r="I2">
-        <v>33.6403521660886</v>
+        <v>3.092308529498699</v>
       </c>
       <c r="J2">
-        <v>8.012568267706483</v>
+        <v>7.151212497683582</v>
       </c>
       <c r="K2">
-        <v>11.05434409805029</v>
+        <v>10.51915875999417</v>
       </c>
       <c r="L2">
-        <v>5.602839866565039</v>
+        <v>5.144777287404045</v>
       </c>
       <c r="M2">
-        <v>9.302025357395307</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>19.36152572129632</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.73348361345719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.50205650199156</v>
+        <v>18.95519515703528</v>
       </c>
       <c r="C3">
-        <v>7.157452215266205</v>
+        <v>14.477423684595</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.364392169854593</v>
+        <v>17.42053910524277</v>
       </c>
       <c r="F3">
-        <v>43.18714178201417</v>
+        <v>27.49925747344877</v>
       </c>
       <c r="G3">
-        <v>2.188419218442523</v>
+        <v>14.5680469260024</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.879294010279541</v>
       </c>
       <c r="I3">
-        <v>32.96932975232203</v>
+        <v>2.959539882605629</v>
       </c>
       <c r="J3">
-        <v>8.02553979702318</v>
+        <v>7.231824256687649</v>
       </c>
       <c r="K3">
-        <v>10.56075795862838</v>
+        <v>10.80486215602418</v>
       </c>
       <c r="L3">
-        <v>5.581448990637194</v>
+        <v>5.087618599747136</v>
       </c>
       <c r="M3">
-        <v>9.140604549350776</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>18.24443569725227</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10.813036181002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.12144776440506</v>
+        <v>18.14044046730828</v>
       </c>
       <c r="C4">
-        <v>6.846526652713919</v>
+        <v>13.98008045246793</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.38462262265048</v>
+        <v>16.97821486784552</v>
       </c>
       <c r="F4">
-        <v>42.44145692359402</v>
+        <v>26.93346188901775</v>
       </c>
       <c r="G4">
-        <v>2.193901165453817</v>
+        <v>14.48602472211301</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.028412275083685</v>
       </c>
       <c r="I4">
-        <v>32.56377842055097</v>
+        <v>2.875910793048576</v>
       </c>
       <c r="J4">
-        <v>8.033719314124628</v>
+        <v>7.284581562282899</v>
       </c>
       <c r="K4">
-        <v>10.25510427985093</v>
+        <v>10.98446951031766</v>
       </c>
       <c r="L4">
-        <v>5.571599614840626</v>
+        <v>5.051129217366011</v>
       </c>
       <c r="M4">
-        <v>9.046811335110586</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17.52405187750814</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.86977211696579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.96500862035139</v>
+        <v>17.79591701658457</v>
       </c>
       <c r="C5">
-        <v>6.717064582953022</v>
+        <v>13.78419909559539</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.393337582641928</v>
+        <v>16.79678969693752</v>
       </c>
       <c r="F5">
-        <v>42.13915659091133</v>
+        <v>26.69582795839039</v>
       </c>
       <c r="G5">
-        <v>2.196172035791295</v>
+        <v>14.44298128356592</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.090574775635762</v>
       </c>
       <c r="I5">
-        <v>32.40018944774243</v>
+        <v>2.841815485279553</v>
       </c>
       <c r="J5">
-        <v>8.037108032071858</v>
+        <v>7.30497074266033</v>
       </c>
       <c r="K5">
-        <v>10.13007059061515</v>
+        <v>11.05615676290265</v>
       </c>
       <c r="L5">
-        <v>5.568401218449119</v>
+        <v>5.035959464043488</v>
       </c>
       <c r="M5">
-        <v>9.009948822447338</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17.22584389899642</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.88970433707265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.93895836240206</v>
+        <v>17.73661247207711</v>
       </c>
       <c r="C6">
-        <v>6.695403060118976</v>
+        <v>13.76520399407081</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.394812985354189</v>
+        <v>16.76893921929863</v>
       </c>
       <c r="F6">
-        <v>42.08906235791779</v>
+        <v>26.64920832023466</v>
       </c>
       <c r="G6">
-        <v>2.196551385922254</v>
+        <v>14.41939203787543</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.101070433817901</v>
       </c>
       <c r="I6">
-        <v>32.37312843663347</v>
+        <v>2.836956026765927</v>
       </c>
       <c r="J6">
-        <v>8.037674117692561</v>
+        <v>7.306076651946658</v>
       </c>
       <c r="K6">
-        <v>10.1092855656965</v>
+        <v>11.06500010645855</v>
       </c>
       <c r="L6">
-        <v>5.567919043482233</v>
+        <v>5.033483134260716</v>
       </c>
       <c r="M6">
-        <v>9.003910479049321</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>17.18056826732358</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.8869226973215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.11934307101886</v>
+        <v>18.13207772525488</v>
       </c>
       <c r="C7">
-        <v>6.844791755716241</v>
+        <v>14.01450982103619</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.384738255906964</v>
+        <v>16.98242196534645</v>
       </c>
       <c r="F7">
-        <v>42.43737329005047</v>
+        <v>26.91113039943261</v>
       </c>
       <c r="G7">
-        <v>2.193931639700322</v>
+        <v>14.44002127532729</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.029491949213465</v>
       </c>
       <c r="I7">
-        <v>32.56156534407656</v>
+        <v>2.877412060673077</v>
       </c>
       <c r="J7">
-        <v>8.033764789036711</v>
+        <v>7.278496703381237</v>
       </c>
       <c r="K7">
-        <v>10.25341971688082</v>
+        <v>10.9769044833085</v>
       </c>
       <c r="L7">
-        <v>5.571553193621062</v>
+        <v>5.05111473055211</v>
       </c>
       <c r="M7">
-        <v>9.046308665681629</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>17.53275170490356</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.85308070201146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.90299763628716</v>
+        <v>19.78111632450371</v>
       </c>
       <c r="C8">
-        <v>7.497815381887622</v>
+        <v>15.03871477932089</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.344429457082127</v>
+        <v>17.88957458262957</v>
       </c>
       <c r="F8">
-        <v>43.98752560699121</v>
+        <v>28.07362265270007</v>
       </c>
       <c r="G8">
-        <v>2.182691409751842</v>
+        <v>14.61060221957995</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.724916549582146</v>
       </c>
       <c r="I8">
-        <v>33.40767346806614</v>
+        <v>3.049135572927357</v>
       </c>
       <c r="J8">
-        <v>8.0169971593303</v>
+        <v>7.169896875955714</v>
       </c>
       <c r="K8">
-        <v>10.88478975869963</v>
+        <v>10.60560895388653</v>
       </c>
       <c r="L8">
-        <v>5.594776347770917</v>
+        <v>5.125667318500157</v>
       </c>
       <c r="M8">
-        <v>9.245276775961171</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>18.99914196340625</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10.7367607546346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.38287541803408</v>
+        <v>22.66028846990715</v>
       </c>
       <c r="C9">
-        <v>8.779007777303018</v>
+        <v>16.83526096361592</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4.280709860002782</v>
+        <v>19.54478219865897</v>
       </c>
       <c r="F9">
-        <v>47.05926327367184</v>
+        <v>30.32409672217524</v>
       </c>
       <c r="G9">
-        <v>2.161691330321766</v>
+        <v>15.16165534906994</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.944182285770673</v>
       </c>
       <c r="I9">
-        <v>35.11612364583026</v>
+        <v>3.367167323003967</v>
       </c>
       <c r="J9">
-        <v>7.985747004149902</v>
+        <v>6.995478574708288</v>
       </c>
       <c r="K9">
-        <v>12.09603115096546</v>
+        <v>9.925099741641219</v>
       </c>
       <c r="L9">
-        <v>5.66682715224202</v>
+        <v>5.260393089097317</v>
       </c>
       <c r="M9">
-        <v>9.676656196897172</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21.57622791072565</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10.60625685931919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.42774468371681</v>
+        <v>24.59150468309696</v>
       </c>
       <c r="C10">
-        <v>9.643882859336502</v>
+        <v>18.08866455608426</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.243714159297575</v>
+        <v>20.37799718005443</v>
       </c>
       <c r="F10">
-        <v>49.32433170623514</v>
+        <v>31.60222985159315</v>
       </c>
       <c r="G10">
-        <v>2.146784478777387</v>
+        <v>15.49489537073338</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.305315430750119</v>
       </c>
       <c r="I10">
-        <v>36.39931429842515</v>
+        <v>3.590279570142438</v>
       </c>
       <c r="J10">
-        <v>7.963663272458891</v>
+        <v>6.862410133349731</v>
       </c>
       <c r="K10">
-        <v>13.06269313927952</v>
+        <v>9.420567466049034</v>
       </c>
       <c r="L10">
-        <v>5.736505687325796</v>
+        <v>5.368014833605501</v>
       </c>
       <c r="M10">
-        <v>10.01736908856257</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23.14613517251911</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10.49431461637092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.93030774185487</v>
+        <v>25.73917799222186</v>
       </c>
       <c r="C11">
-        <v>10.02174789175934</v>
+        <v>18.8152662120977</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.22914516116665</v>
+        <v>18.14406271453492</v>
       </c>
       <c r="F11">
-        <v>50.35487255016918</v>
+        <v>29.43643402388302</v>
       </c>
       <c r="G11">
-        <v>2.140088455124956</v>
+        <v>14.39170972989754</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.083481064610027</v>
       </c>
       <c r="I11">
-        <v>36.98896114303401</v>
+        <v>3.673678304993618</v>
       </c>
       <c r="J11">
-        <v>7.9537761260407</v>
+        <v>6.620429015873171</v>
       </c>
       <c r="K11">
-        <v>13.56826927405547</v>
+        <v>9.036893426679196</v>
       </c>
       <c r="L11">
-        <v>5.771956850012369</v>
+        <v>5.606154569237896</v>
       </c>
       <c r="M11">
-        <v>10.1772747093214</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>22.51136694248638</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>9.948899540179271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.13605242367565</v>
+        <v>26.32420374436885</v>
       </c>
       <c r="C12">
-        <v>10.16268846351876</v>
+        <v>19.12780973535945</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.223966257695257</v>
+        <v>16.15565073764814</v>
       </c>
       <c r="F12">
-        <v>50.74504155062073</v>
+        <v>27.34911050564929</v>
       </c>
       <c r="G12">
-        <v>2.137562536318553</v>
+        <v>13.43022526103221</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.27510757217901</v>
       </c>
       <c r="I12">
-        <v>37.21309856361218</v>
+        <v>3.696237892042455</v>
       </c>
       <c r="J12">
-        <v>7.950052021192347</v>
+        <v>6.452586760363481</v>
       </c>
       <c r="K12">
-        <v>13.75660361714069</v>
+        <v>8.858220751272849</v>
       </c>
       <c r="L12">
-        <v>5.785930302643486</v>
+        <v>5.856046260499798</v>
       </c>
       <c r="M12">
-        <v>10.2385155594424</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>21.62305076849287</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9.531809863523959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.09188399177476</v>
+        <v>26.5263556941498</v>
       </c>
       <c r="C13">
-        <v>10.1324284211648</v>
+        <v>19.19495085200354</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4.22506636331223</v>
+        <v>14.25032211855875</v>
       </c>
       <c r="F13">
-        <v>50.66101604606765</v>
+        <v>25.13670918254706</v>
       </c>
       <c r="G13">
-        <v>2.138106148772323</v>
+        <v>12.43491766141376</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.559745636950723</v>
       </c>
       <c r="I13">
-        <v>37.16478850494517</v>
+        <v>3.676560878215007</v>
       </c>
       <c r="J13">
-        <v>7.950853237108417</v>
+        <v>6.322498414410341</v>
       </c>
       <c r="K13">
-        <v>13.71617928212234</v>
+        <v>8.81409195037326</v>
       </c>
       <c r="L13">
-        <v>5.782896312815593</v>
+        <v>6.120761165383767</v>
       </c>
       <c r="M13">
-        <v>10.22529588885829</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>20.4737508562199</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.162449758418054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.94729876714583</v>
+        <v>26.49699603790379</v>
       </c>
       <c r="C14">
-        <v>10.03338567201152</v>
+        <v>19.14096029979084</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4.228712232814219</v>
+        <v>13.00088591433024</v>
       </c>
       <c r="F14">
-        <v>50.38697387456808</v>
+        <v>23.52115372707384</v>
       </c>
       <c r="G14">
-        <v>2.139880466833138</v>
+        <v>11.7087162524576</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.490700184977154</v>
       </c>
       <c r="I14">
-        <v>37.00738393995866</v>
+        <v>3.644606263054389</v>
       </c>
       <c r="J14">
-        <v>7.953469359974936</v>
+        <v>6.248415395655636</v>
       </c>
       <c r="K14">
-        <v>13.58382547805764</v>
+        <v>8.846938754287919</v>
       </c>
       <c r="L14">
-        <v>5.7730954019065</v>
+        <v>6.317266802211368</v>
       </c>
       <c r="M14">
-        <v>10.18229933039277</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>19.5373257287883</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8.924953066057583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.85831772210113</v>
+        <v>26.40639266735088</v>
       </c>
       <c r="C15">
-        <v>9.972442133015974</v>
+        <v>19.0871061368474</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.230989878376156</v>
+        <v>12.70770222035857</v>
       </c>
       <c r="F15">
-        <v>50.21910333307359</v>
+        <v>23.09640630927773</v>
       </c>
       <c r="G15">
-        <v>2.14096847443631</v>
+        <v>11.51222046714237</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.702646237889972</v>
       </c>
       <c r="I15">
-        <v>36.91108024838676</v>
+        <v>3.628619004054205</v>
       </c>
       <c r="J15">
-        <v>7.955074315451226</v>
+        <v>6.236860376713644</v>
       </c>
       <c r="K15">
-        <v>13.50235237138006</v>
+        <v>8.879420342041735</v>
       </c>
       <c r="L15">
-        <v>5.767163810466438</v>
+        <v>6.359962093984588</v>
       </c>
       <c r="M15">
-        <v>10.15605183292697</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>19.25509391372972</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8.87335170492014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.39713564919383</v>
+        <v>25.59540013432649</v>
       </c>
       <c r="C16">
-        <v>9.618882692791452</v>
+        <v>18.58303917677289</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.244712831841814</v>
+        <v>12.66812910684773</v>
       </c>
       <c r="F16">
-        <v>49.25697726276299</v>
+        <v>22.90813007452259</v>
       </c>
       <c r="G16">
-        <v>2.147223583082829</v>
+        <v>11.50286001927162</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.434977711708571</v>
       </c>
       <c r="I16">
-        <v>36.36089813771119</v>
+        <v>3.539054393928705</v>
       </c>
       <c r="J16">
-        <v>7.964312377825393</v>
+        <v>6.317972481873977</v>
       </c>
       <c r="K16">
-        <v>13.02921055437381</v>
+        <v>9.097200869076383</v>
       </c>
       <c r="L16">
-        <v>5.734265181607926</v>
+        <v>6.258907291201846</v>
       </c>
       <c r="M16">
-        <v>10.00701607028329</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>18.7604125620461</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8.987799024352926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.12774543856065</v>
+        <v>24.97433126548314</v>
       </c>
       <c r="C17">
-        <v>9.398058955843659</v>
+        <v>18.2199949100303</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.253719037557771</v>
+        <v>13.28734730712288</v>
       </c>
       <c r="F17">
-        <v>48.66670062740607</v>
+        <v>23.63822677753381</v>
       </c>
       <c r="G17">
-        <v>2.151080982510531</v>
+        <v>11.89073238571154</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.681450665206869</v>
       </c>
       <c r="I17">
-        <v>36.0248889838251</v>
+        <v>3.487345974140413</v>
       </c>
       <c r="J17">
-        <v>7.970018368129058</v>
+        <v>6.418689715467657</v>
       </c>
       <c r="K17">
-        <v>12.73328796130607</v>
+        <v>9.24545825874401</v>
       </c>
       <c r="L17">
-        <v>5.715050845130427</v>
+        <v>6.070466993414284</v>
       </c>
       <c r="M17">
-        <v>9.916831411876883</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>18.8987231432911</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.199729797088487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.97184649674098</v>
+        <v>24.46084286515343</v>
       </c>
       <c r="C18">
-        <v>9.269575467907977</v>
+        <v>17.91650904545678</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.259111053374707</v>
+        <v>14.66270732234292</v>
       </c>
       <c r="F18">
-        <v>48.3272063954083</v>
+        <v>25.26647232574843</v>
       </c>
       <c r="G18">
-        <v>2.153307839112381</v>
+        <v>12.68656309130066</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.46213053876592</v>
       </c>
       <c r="I18">
-        <v>35.83218127928659</v>
+        <v>3.460658854056915</v>
       </c>
       <c r="J18">
-        <v>7.973315449522134</v>
+        <v>6.552405947624907</v>
       </c>
       <c r="K18">
-        <v>12.58367321851789</v>
+        <v>9.366641963801188</v>
       </c>
       <c r="L18">
-        <v>5.704352078500354</v>
+        <v>5.810371012818059</v>
       </c>
       <c r="M18">
-        <v>9.865422950903541</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>19.5934524889227</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.53122211674321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.91889984651899</v>
+        <v>24.07563924625384</v>
       </c>
       <c r="C19">
-        <v>9.225817817440053</v>
+        <v>17.74802946804358</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.260972724085979</v>
+        <v>16.67506382367782</v>
       </c>
       <c r="F19">
-        <v>48.21226607576592</v>
+        <v>27.47585984919955</v>
       </c>
       <c r="G19">
-        <v>2.154063292949047</v>
+        <v>13.66964924662542</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.111616683886894</v>
       </c>
       <c r="I19">
-        <v>35.7670295324242</v>
+        <v>3.46417268368222</v>
       </c>
       <c r="J19">
-        <v>7.974434468472838</v>
+        <v>6.694478954894612</v>
       </c>
       <c r="K19">
-        <v>12.53972223714584</v>
+        <v>9.470684290903895</v>
       </c>
       <c r="L19">
-        <v>5.700789981765984</v>
+        <v>5.559239606360838</v>
       </c>
       <c r="M19">
-        <v>9.848097149233848</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>20.68786792294964</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>9.910653415659372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.1565214821425</v>
+        <v>24.09237723004724</v>
       </c>
       <c r="C20">
-        <v>9.421717688458662</v>
+        <v>17.86223341887784</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4.252738294427544</v>
+        <v>20.16643555854447</v>
       </c>
       <c r="F20">
-        <v>48.72953562786898</v>
+        <v>31.20431896902154</v>
       </c>
       <c r="G20">
-        <v>2.150669526439677</v>
+        <v>15.26429507567648</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.209382601145445</v>
       </c>
       <c r="I20">
-        <v>36.06060026004645</v>
+        <v>3.539840286387994</v>
       </c>
       <c r="J20">
-        <v>7.969409407920609</v>
+        <v>6.875321825127526</v>
       </c>
       <c r="K20">
-        <v>12.76500760571819</v>
+        <v>9.525419904128229</v>
       </c>
       <c r="L20">
-        <v>5.717059664318258</v>
+        <v>5.341831888720572</v>
       </c>
       <c r="M20">
-        <v>9.926383914252133</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>22.76813954295688</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10.46536578892506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.98985398866913</v>
+        <v>25.44899240989886</v>
       </c>
       <c r="C21">
-        <v>10.06253448000003</v>
+        <v>18.74399784509621</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>4.2276320641298</v>
+        <v>21.25763440303147</v>
       </c>
       <c r="F21">
-        <v>50.46746927119946</v>
+        <v>32.66858825795006</v>
       </c>
       <c r="G21">
-        <v>2.139359064201696</v>
+        <v>15.79787721616338</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.505642214454632</v>
       </c>
       <c r="I21">
-        <v>37.05359428512244</v>
+        <v>3.71071723156123</v>
       </c>
       <c r="J21">
-        <v>7.952700425030897</v>
+        <v>6.815206786989164</v>
       </c>
       <c r="K21">
-        <v>13.62278469591192</v>
+        <v>9.17882169665017</v>
       </c>
       <c r="L21">
-        <v>5.775959198087998</v>
+        <v>5.398750862335496</v>
       </c>
       <c r="M21">
-        <v>10.19490991220639</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>24.14989285255809</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10.49324834828071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.58278576606753</v>
+        <v>26.31857819871238</v>
       </c>
       <c r="C22">
-        <v>10.468869371715</v>
+        <v>19.27328233959194</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4.213201703297143</v>
+        <v>21.78886140682667</v>
       </c>
       <c r="F22">
-        <v>51.6028628519049</v>
+        <v>33.47015883401863</v>
       </c>
       <c r="G22">
-        <v>2.132022319803937</v>
+        <v>16.14305764048629</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.686711647642456</v>
       </c>
       <c r="I22">
-        <v>37.70754773593097</v>
+        <v>3.816600018371338</v>
       </c>
       <c r="J22">
-        <v>7.941894752060924</v>
+        <v>6.777995526574963</v>
       </c>
       <c r="K22">
-        <v>14.16528244531198</v>
+        <v>8.956969234259926</v>
       </c>
       <c r="L22">
-        <v>5.817657036252952</v>
+        <v>5.442039154055223</v>
       </c>
       <c r="M22">
-        <v>10.37441276940406</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>24.92920057468087</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10.51572669642258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.26801677926034</v>
+        <v>25.86123733522443</v>
       </c>
       <c r="C23">
-        <v>10.25311014499374</v>
+        <v>18.95836027918599</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>4.220717635211681</v>
+        <v>21.5003245782039</v>
       </c>
       <c r="F23">
-        <v>50.99694293852831</v>
+        <v>33.06180987620655</v>
       </c>
       <c r="G23">
-        <v>2.135933920918879</v>
+        <v>16.00481446688887</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.590569513669796</v>
       </c>
       <c r="I23">
-        <v>37.35806012338774</v>
+        <v>3.757229886530113</v>
       </c>
       <c r="J23">
-        <v>7.947652515969017</v>
+        <v>6.80502448146479</v>
       </c>
       <c r="K23">
-        <v>13.87736113517594</v>
+        <v>9.085038464033552</v>
       </c>
       <c r="L23">
-        <v>5.79510594377459</v>
+        <v>5.418649948751428</v>
       </c>
       <c r="M23">
-        <v>10.27824703415462</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>24.505288638334</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>10.5225052737154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.14351501562776</v>
+        <v>24.04459172711329</v>
       </c>
       <c r="C24">
-        <v>9.411026344597353</v>
+        <v>17.78016090433151</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4.253181022078594</v>
+        <v>20.38645305830638</v>
       </c>
       <c r="F24">
-        <v>48.70112834094728</v>
+        <v>31.4620916254881</v>
       </c>
       <c r="G24">
-        <v>2.150855516928185</v>
+        <v>15.44301121652124</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.218703675297081</v>
       </c>
       <c r="I24">
-        <v>36.04445373273981</v>
+        <v>3.53388224268436</v>
       </c>
       <c r="J24">
-        <v>7.969684666814005</v>
+        <v>6.903890183931279</v>
       </c>
       <c r="K24">
-        <v>12.75067399032283</v>
+        <v>9.560977948166331</v>
       </c>
       <c r="L24">
-        <v>5.71615039448825</v>
+        <v>5.328304697298672</v>
       </c>
       <c r="M24">
-        <v>9.922063856263167</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>22.85164211407579</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>10.53922266825769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.98954709301687</v>
+        <v>21.91446687441258</v>
       </c>
       <c r="C25">
-        <v>8.44614688374681</v>
+        <v>16.42457060634075</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.29626213451151</v>
+        <v>19.12071238488805</v>
       </c>
       <c r="F25">
-        <v>46.22612839972681</v>
+        <v>29.69239962726894</v>
       </c>
       <c r="G25">
-        <v>2.167271987502683</v>
+        <v>14.91900855338762</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.80076679539036</v>
       </c>
       <c r="I25">
-        <v>34.64891537149991</v>
+        <v>3.286594315398457</v>
       </c>
       <c r="J25">
-        <v>7.994037756231398</v>
+        <v>7.028046375623856</v>
       </c>
       <c r="K25">
-        <v>11.77201190137193</v>
+        <v>10.09068544759478</v>
       </c>
       <c r="L25">
-        <v>5.644435413561159</v>
+        <v>5.225633805031657</v>
       </c>
       <c r="M25">
-        <v>9.55568545423333</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>20.92860431155576</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10.60307645131885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.20835292158024</v>
+        <v>20.20665356153386</v>
       </c>
       <c r="C2">
-        <v>15.25748146787119</v>
+        <v>15.2051408412408</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.11917828426963</v>
+        <v>18.09336165986839</v>
       </c>
       <c r="F2">
-        <v>28.41059347729549</v>
+        <v>28.38587774920052</v>
       </c>
       <c r="G2">
-        <v>14.72861460467513</v>
+        <v>13.90215390559461</v>
       </c>
       <c r="H2">
-        <v>1.644855346949359</v>
+        <v>1.65298911140138</v>
       </c>
       <c r="I2">
-        <v>3.092308529498699</v>
+        <v>3.097739664374175</v>
       </c>
       <c r="J2">
-        <v>7.151212497683582</v>
+        <v>7.823178507519262</v>
       </c>
       <c r="K2">
-        <v>10.51915875999417</v>
+        <v>10.48974112195588</v>
       </c>
       <c r="L2">
-        <v>5.144777287404045</v>
+        <v>9.777457300314172</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.716734082634235</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.149237904519869</v>
       </c>
       <c r="O2">
-        <v>19.36152572129632</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10.73348361345719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>19.38676641543931</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10.75526077897413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.95519515703528</v>
+        <v>18.96812318169547</v>
       </c>
       <c r="C3">
-        <v>14.477423684595</v>
+        <v>14.34886886014136</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.42053910524277</v>
+        <v>17.39589721180373</v>
       </c>
       <c r="F3">
-        <v>27.49925747344877</v>
+        <v>27.5008883490532</v>
       </c>
       <c r="G3">
-        <v>14.5680469260024</v>
+        <v>13.76733089158248</v>
       </c>
       <c r="H3">
-        <v>1.879294010279541</v>
+        <v>1.882443051219705</v>
       </c>
       <c r="I3">
-        <v>2.959539882605629</v>
+        <v>2.979744275031127</v>
       </c>
       <c r="J3">
-        <v>7.231824256687649</v>
+        <v>7.874864430550477</v>
       </c>
       <c r="K3">
-        <v>10.80486215602418</v>
+        <v>10.75840779158681</v>
       </c>
       <c r="L3">
-        <v>5.087618599747136</v>
+        <v>9.978761655037536</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.978635115506092</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.089267825571278</v>
       </c>
       <c r="O3">
-        <v>18.24443569725227</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.813036181002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>18.25331845702584</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10.84287723591213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.14044046730828</v>
+        <v>18.16310196267116</v>
       </c>
       <c r="C4">
-        <v>13.98008045246793</v>
+        <v>13.80214663999718</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.97821486784552</v>
+        <v>16.95498956090525</v>
       </c>
       <c r="F4">
-        <v>26.93346188901775</v>
+        <v>26.95102823073086</v>
       </c>
       <c r="G4">
-        <v>14.48602472211301</v>
+        <v>13.70137267074095</v>
       </c>
       <c r="H4">
-        <v>2.028412275083685</v>
+        <v>2.02841539305318</v>
       </c>
       <c r="I4">
-        <v>2.875910793048576</v>
+        <v>2.905561863091267</v>
       </c>
       <c r="J4">
-        <v>7.284581562282899</v>
+        <v>7.908093893620569</v>
       </c>
       <c r="K4">
-        <v>10.98446951031766</v>
+        <v>10.92692024006465</v>
       </c>
       <c r="L4">
-        <v>5.051129217366011</v>
+        <v>10.11138627595858</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.15533564798711</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.051082490424028</v>
       </c>
       <c r="O4">
-        <v>17.52405187750814</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.86977211696579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>17.52230203492807</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.90287880033039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.79591701658457</v>
+        <v>17.82277170079415</v>
       </c>
       <c r="C5">
-        <v>13.78419909559539</v>
+        <v>13.58539270511898</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.79678969693752</v>
+        <v>16.77427658566952</v>
       </c>
       <c r="F5">
-        <v>26.69582795839039</v>
+        <v>26.71994374415073</v>
       </c>
       <c r="G5">
-        <v>14.44298128356592</v>
+        <v>13.66459386690791</v>
       </c>
       <c r="H5">
-        <v>2.090574775635762</v>
+        <v>2.089272641162052</v>
       </c>
       <c r="I5">
-        <v>2.841815485279553</v>
+        <v>2.875660848456297</v>
       </c>
       <c r="J5">
-        <v>7.30497074266033</v>
+        <v>7.920178758060313</v>
       </c>
       <c r="K5">
-        <v>11.05615676290265</v>
+        <v>10.99392886826134</v>
       </c>
       <c r="L5">
-        <v>5.035959464043488</v>
+        <v>10.16427188441487</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.231205626880013</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.035226087314229</v>
       </c>
       <c r="O5">
-        <v>17.22584389899642</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.88970433707265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>17.21952456953805</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.92384008424619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.73661247207711</v>
+        <v>17.76420553706357</v>
       </c>
       <c r="C6">
-        <v>13.76520399407081</v>
+        <v>13.56273251201277</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.76893921929863</v>
+        <v>16.74649308109892</v>
       </c>
       <c r="F6">
-        <v>26.64920832023466</v>
+        <v>26.67458047834819</v>
       </c>
       <c r="G6">
-        <v>14.41939203787543</v>
+        <v>13.64169570202064</v>
       </c>
       <c r="H6">
-        <v>2.101070433817901</v>
+        <v>2.099549096482125</v>
       </c>
       <c r="I6">
-        <v>2.836956026765927</v>
+        <v>2.871845706788589</v>
       </c>
       <c r="J6">
-        <v>7.306076651946658</v>
+        <v>7.919978528326562</v>
       </c>
       <c r="K6">
-        <v>11.06500010645855</v>
+        <v>11.00198685469205</v>
       </c>
       <c r="L6">
-        <v>5.033483134260716</v>
+        <v>10.16906694724468</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.244075936991007</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.032631678651796</v>
       </c>
       <c r="O6">
-        <v>17.18056826732358</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.8869226973215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>17.17336059932135</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.92133532851108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.13207772525488</v>
+        <v>18.15396642181357</v>
       </c>
       <c r="C7">
-        <v>14.01450982103619</v>
+        <v>13.82949725579527</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.98242196534645</v>
+        <v>16.96523026141579</v>
       </c>
       <c r="F7">
-        <v>26.91113039943261</v>
+        <v>26.91987227632571</v>
       </c>
       <c r="G7">
-        <v>14.44002127532729</v>
+        <v>13.73708103254887</v>
       </c>
       <c r="H7">
-        <v>2.029491949213465</v>
+        <v>2.029743397380721</v>
       </c>
       <c r="I7">
-        <v>2.877412060673077</v>
+        <v>2.90752737222308</v>
       </c>
       <c r="J7">
-        <v>7.278496703381237</v>
+        <v>7.872754936215774</v>
       </c>
       <c r="K7">
-        <v>10.9769044833085</v>
+        <v>10.91664856541279</v>
       </c>
       <c r="L7">
-        <v>5.05111473055211</v>
+        <v>10.09772139973462</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.155919613412926</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.051219346627707</v>
       </c>
       <c r="O7">
-        <v>17.53275170490356</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.85308070201146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>17.53307356659987</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.87704902891646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.78111632450371</v>
+        <v>19.7816644949511</v>
       </c>
       <c r="C8">
-        <v>15.03871477932089</v>
+        <v>14.94031219409002</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.88957458262957</v>
+        <v>17.88361767925906</v>
       </c>
       <c r="F8">
-        <v>28.07362265270007</v>
+        <v>28.02876426047451</v>
       </c>
       <c r="G8">
-        <v>14.61060221957995</v>
+        <v>14.06382791257314</v>
       </c>
       <c r="H8">
-        <v>1.724916549582146</v>
+        <v>1.73216259975777</v>
       </c>
       <c r="I8">
-        <v>3.049135572927357</v>
+        <v>3.059234160590819</v>
       </c>
       <c r="J8">
-        <v>7.169896875955714</v>
+        <v>7.737100910859255</v>
       </c>
       <c r="K8">
-        <v>10.60560895388653</v>
+        <v>10.56232770744606</v>
       </c>
       <c r="L8">
-        <v>5.125667318500157</v>
+        <v>9.823449467347265</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.797876316363058</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.129804354845737</v>
       </c>
       <c r="O8">
-        <v>18.99914196340625</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.7367607546346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>19.02600692779162</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.73069232626854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.66028846990715</v>
+        <v>22.62762205673732</v>
       </c>
       <c r="C9">
-        <v>16.83526096361592</v>
+        <v>16.90935467604786</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.54478219865897</v>
+        <v>19.54319545907474</v>
       </c>
       <c r="F9">
-        <v>30.32409672217524</v>
+        <v>30.20718074320663</v>
       </c>
       <c r="G9">
-        <v>15.16165534906994</v>
+        <v>14.61797036542385</v>
       </c>
       <c r="H9">
-        <v>1.944182285770673</v>
+        <v>1.925284300606865</v>
       </c>
       <c r="I9">
-        <v>3.367167323003967</v>
+        <v>3.34124589841579</v>
       </c>
       <c r="J9">
-        <v>6.995478574708288</v>
+        <v>7.596698569624811</v>
       </c>
       <c r="K9">
-        <v>9.925099741641219</v>
+        <v>9.91878869275758</v>
       </c>
       <c r="L9">
-        <v>5.260393089097317</v>
+        <v>9.387344039880091</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.23506710746739</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.272005378203048</v>
       </c>
       <c r="O9">
-        <v>21.57622791072565</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10.60625685931919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>21.64157470515954</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10.56077212820667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.59150468309696</v>
+        <v>24.53422397852052</v>
       </c>
       <c r="C10">
-        <v>18.08866455608426</v>
+        <v>18.23776654727995</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.37799718005443</v>
+        <v>20.40977481893276</v>
       </c>
       <c r="F10">
-        <v>31.60222985159315</v>
+        <v>31.39253434362461</v>
       </c>
       <c r="G10">
-        <v>15.49489537073338</v>
+        <v>15.41170408956807</v>
       </c>
       <c r="H10">
-        <v>2.305315430750119</v>
+        <v>2.277130775201119</v>
       </c>
       <c r="I10">
-        <v>3.590279570142438</v>
+        <v>3.53828964921647</v>
       </c>
       <c r="J10">
-        <v>6.862410133349731</v>
+        <v>7.325013852613024</v>
       </c>
       <c r="K10">
-        <v>9.420567466049034</v>
+        <v>9.42998118363608</v>
       </c>
       <c r="L10">
-        <v>5.368014833605501</v>
+        <v>9.096561746838375</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.881032162847871</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.387475102121443</v>
       </c>
       <c r="O10">
-        <v>23.14613517251911</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10.49431461637092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>23.24421159584816</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.36137685605586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.73917799222186</v>
+        <v>25.67229566429206</v>
       </c>
       <c r="C11">
-        <v>18.8152662120977</v>
+        <v>18.87331780464903</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.14406271453492</v>
+        <v>18.20994414746437</v>
       </c>
       <c r="F11">
-        <v>29.43643402388302</v>
+        <v>29.1549648578944</v>
       </c>
       <c r="G11">
-        <v>14.39170972989754</v>
+        <v>15.36203428083391</v>
       </c>
       <c r="H11">
-        <v>3.083481064610027</v>
+        <v>3.05898294892987</v>
       </c>
       <c r="I11">
-        <v>3.673678304993618</v>
+        <v>3.610617526963738</v>
       </c>
       <c r="J11">
-        <v>6.620429015873171</v>
+        <v>6.865807179216707</v>
       </c>
       <c r="K11">
-        <v>9.036893426679196</v>
+        <v>9.08566071952341</v>
       </c>
       <c r="L11">
-        <v>5.606154569237896</v>
+        <v>8.924587709617567</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.558405508212599</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.64140696662687</v>
       </c>
       <c r="O11">
-        <v>22.51136694248638</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9.948899540179271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>22.61802232537022</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>9.739391387739213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.32420374436885</v>
+        <v>26.25637777531994</v>
       </c>
       <c r="C12">
-        <v>19.12780973535945</v>
+        <v>19.11076405409755</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.15565073764814</v>
+        <v>16.21564346659145</v>
       </c>
       <c r="F12">
-        <v>27.34911050564929</v>
+        <v>27.05619201333787</v>
       </c>
       <c r="G12">
-        <v>13.43022526103221</v>
+        <v>14.9201915199019</v>
       </c>
       <c r="H12">
-        <v>4.27510757217901</v>
+        <v>4.257021133273074</v>
       </c>
       <c r="I12">
-        <v>3.696237892042455</v>
+        <v>3.62862633605484</v>
       </c>
       <c r="J12">
-        <v>6.452586760363481</v>
+        <v>6.671611334761014</v>
       </c>
       <c r="K12">
-        <v>8.858220751272849</v>
+        <v>8.945704483157847</v>
       </c>
       <c r="L12">
-        <v>5.856046260499798</v>
+        <v>8.873460586998092</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.392958642013928</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.901892272870285</v>
       </c>
       <c r="O12">
-        <v>21.62305076849287</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9.531809863523959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>21.72396366179071</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.314289231731314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.5263556941498</v>
+        <v>26.46578074658483</v>
       </c>
       <c r="C13">
-        <v>19.19495085200354</v>
+        <v>19.1210942389503</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.25032211855875</v>
+        <v>14.26417898639077</v>
       </c>
       <c r="F13">
-        <v>25.13670918254706</v>
+        <v>24.89721588036788</v>
       </c>
       <c r="G13">
-        <v>12.43491766141376</v>
+        <v>13.86064009856995</v>
       </c>
       <c r="H13">
-        <v>5.559745636950723</v>
+        <v>5.546777782748195</v>
       </c>
       <c r="I13">
-        <v>3.676560878215007</v>
+        <v>3.611216551016492</v>
       </c>
       <c r="J13">
-        <v>6.322498414410341</v>
+        <v>6.636347769358014</v>
       </c>
       <c r="K13">
-        <v>8.81409195037326</v>
+        <v>8.93278774580175</v>
       </c>
       <c r="L13">
-        <v>6.120761165383767</v>
+        <v>8.877828001240504</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.342020155606257</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.167873646506835</v>
       </c>
       <c r="O13">
-        <v>20.4737508562199</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9.162449758418054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>20.55222657450225</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.00958075816362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.49699603790379</v>
+        <v>26.44523086380868</v>
       </c>
       <c r="C14">
-        <v>19.14096029979084</v>
+        <v>19.03431565124911</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.00088591433024</v>
+        <v>12.96865664914551</v>
       </c>
       <c r="F14">
-        <v>23.52115372707384</v>
+        <v>23.34676156703697</v>
       </c>
       <c r="G14">
-        <v>11.7087162524576</v>
+        <v>12.82933086472594</v>
       </c>
       <c r="H14">
-        <v>6.490700184977154</v>
+        <v>6.480565799382909</v>
       </c>
       <c r="I14">
-        <v>3.644606263054389</v>
+        <v>3.584212469327985</v>
       </c>
       <c r="J14">
-        <v>6.248415395655636</v>
+        <v>6.665986401212876</v>
       </c>
       <c r="K14">
-        <v>8.846938754287919</v>
+        <v>8.977200170974472</v>
       </c>
       <c r="L14">
-        <v>6.317266802211368</v>
+        <v>8.898809495776741</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.363998126606174</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.359295181134307</v>
       </c>
       <c r="O14">
-        <v>19.5373257287883</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8.924953066057583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>19.59231573735423</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.845324231807592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.40639266735088</v>
+        <v>26.35848231931771</v>
       </c>
       <c r="C15">
-        <v>19.0871061368474</v>
+        <v>18.97526674241746</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.70770222035857</v>
+        <v>12.6604299515925</v>
       </c>
       <c r="F15">
-        <v>23.09640630927773</v>
+        <v>22.94948090950535</v>
       </c>
       <c r="G15">
-        <v>11.51222046714237</v>
+        <v>12.44823352849586</v>
       </c>
       <c r="H15">
-        <v>6.702646237889972</v>
+        <v>6.693284544708118</v>
       </c>
       <c r="I15">
-        <v>3.628619004054205</v>
+        <v>3.57134300780874</v>
       </c>
       <c r="J15">
-        <v>6.236860376713644</v>
+        <v>6.697495817549699</v>
       </c>
       <c r="K15">
-        <v>8.879420342041735</v>
+        <v>9.008983266611448</v>
       </c>
       <c r="L15">
-        <v>6.359962093984588</v>
+        <v>8.910032198931791</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.391797432728827</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.39852562159134</v>
       </c>
       <c r="O15">
-        <v>19.25509391372972</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8.87335170492014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>19.30096721824958</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.823289080174337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.59540013432649</v>
+        <v>25.56242793476432</v>
       </c>
       <c r="C16">
-        <v>18.58303917677289</v>
+        <v>18.49423553840593</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.66812910684773</v>
+        <v>12.58982556686917</v>
       </c>
       <c r="F16">
-        <v>22.90813007452259</v>
+        <v>22.85651512851515</v>
       </c>
       <c r="G16">
-        <v>11.50286001927162</v>
+        <v>11.54579602184672</v>
       </c>
       <c r="H16">
-        <v>6.434977711708571</v>
+        <v>6.44029421737394</v>
       </c>
       <c r="I16">
-        <v>3.539054393928705</v>
+        <v>3.496033395655832</v>
       </c>
       <c r="J16">
-        <v>6.317972481873977</v>
+        <v>6.950139396272633</v>
       </c>
       <c r="K16">
-        <v>9.097200869076383</v>
+        <v>9.201861646479779</v>
       </c>
       <c r="L16">
-        <v>6.258907291201846</v>
+        <v>8.971002993046797</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.591637203099749</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.281402435202861</v>
       </c>
       <c r="O16">
-        <v>18.7604125620461</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8.987799024352926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>18.7788586476543</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.032868429714034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.97433126548314</v>
+        <v>24.94713257364675</v>
       </c>
       <c r="C17">
-        <v>18.2199949100303</v>
+        <v>18.15905879180572</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.28734730712288</v>
+        <v>13.20733598789984</v>
       </c>
       <c r="F17">
-        <v>23.63822677753381</v>
+        <v>23.61520946001016</v>
       </c>
       <c r="G17">
-        <v>11.89073238571154</v>
+        <v>11.54058109450508</v>
       </c>
       <c r="H17">
-        <v>5.681450665206869</v>
+        <v>5.68708868701963</v>
       </c>
       <c r="I17">
-        <v>3.487345974140413</v>
+        <v>3.452234479294944</v>
       </c>
       <c r="J17">
-        <v>6.418689715467657</v>
+        <v>7.126014305639707</v>
       </c>
       <c r="K17">
-        <v>9.24545825874401</v>
+        <v>9.333187721414001</v>
       </c>
       <c r="L17">
-        <v>6.070466993414284</v>
+        <v>9.022351876353204</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.726050933102736</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.087018262057082</v>
       </c>
       <c r="O17">
-        <v>18.8987231432911</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9.199729797088487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>18.91180629917898</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.270092862377464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.46084286515343</v>
+        <v>24.43327011314274</v>
       </c>
       <c r="C18">
-        <v>17.91650904545678</v>
+        <v>17.90206561623658</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.66270732234292</v>
+        <v>14.59543420467885</v>
       </c>
       <c r="F18">
-        <v>25.26647232574843</v>
+        <v>25.23458886235218</v>
       </c>
       <c r="G18">
-        <v>12.68656309130066</v>
+        <v>12.145687455643</v>
       </c>
       <c r="H18">
-        <v>4.46213053876592</v>
+        <v>4.453348782489588</v>
       </c>
       <c r="I18">
-        <v>3.460658854056915</v>
+        <v>3.428232067091024</v>
       </c>
       <c r="J18">
-        <v>6.552405947624907</v>
+        <v>7.279691347003417</v>
       </c>
       <c r="K18">
-        <v>9.366641963801188</v>
+        <v>9.438993775128283</v>
       </c>
       <c r="L18">
-        <v>5.810371012818059</v>
+        <v>9.077369332155115</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.828028392970025</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.826134022460288</v>
       </c>
       <c r="O18">
-        <v>19.5934524889227</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.53122211674321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>19.6160336467104</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.589837148014357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.07563924625384</v>
+        <v>24.04341537640078</v>
       </c>
       <c r="C19">
-        <v>17.74802946804358</v>
+        <v>17.7941873175748</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.67506382367782</v>
+        <v>16.62871943373002</v>
       </c>
       <c r="F19">
-        <v>27.47585984919955</v>
+        <v>27.41277110944219</v>
       </c>
       <c r="G19">
-        <v>13.66964924662542</v>
+        <v>13.03580818048168</v>
       </c>
       <c r="H19">
-        <v>3.111616683886894</v>
+        <v>3.098439872417615</v>
       </c>
       <c r="I19">
-        <v>3.46417268368222</v>
+        <v>3.432339782380477</v>
       </c>
       <c r="J19">
-        <v>6.694478954894612</v>
+        <v>7.410545113653313</v>
       </c>
       <c r="K19">
-        <v>9.470684290903895</v>
+        <v>9.525029317025108</v>
       </c>
       <c r="L19">
-        <v>5.559239606360838</v>
+        <v>9.133245972717614</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.908209921502137</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.575625987260942</v>
       </c>
       <c r="O19">
-        <v>20.68786792294964</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9.910653415659372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>20.72878606823973</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>9.936094107758187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.09237723004724</v>
+        <v>24.04403162762681</v>
       </c>
       <c r="C20">
-        <v>17.86223341887784</v>
+        <v>18.0086988774807</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.16643555854447</v>
+        <v>20.16979947297504</v>
       </c>
       <c r="F20">
-        <v>31.20431896902154</v>
+        <v>31.04904230072412</v>
       </c>
       <c r="G20">
-        <v>15.26429507567648</v>
+        <v>14.78414736915106</v>
       </c>
       <c r="H20">
-        <v>2.209382601145445</v>
+        <v>2.18431678129952</v>
       </c>
       <c r="I20">
-        <v>3.539840286387994</v>
+        <v>3.498953201929923</v>
       </c>
       <c r="J20">
-        <v>6.875321825127526</v>
+        <v>7.474668946381086</v>
       </c>
       <c r="K20">
-        <v>9.525419904128229</v>
+        <v>9.54297731851114</v>
       </c>
       <c r="L20">
-        <v>5.341831888720572</v>
+        <v>9.159384971303043</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.953699071650447</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.35830144246043</v>
       </c>
       <c r="O20">
-        <v>22.76813954295688</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10.46536578892506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>22.85025279287582</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.39313811982964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.44899240989886</v>
+        <v>25.36920444442213</v>
       </c>
       <c r="C21">
-        <v>18.74399784509621</v>
+        <v>18.86494364501984</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.25763440303147</v>
+        <v>21.3921101869576</v>
       </c>
       <c r="F21">
-        <v>32.66858825795006</v>
+        <v>32.28645572755509</v>
       </c>
       <c r="G21">
-        <v>15.79787721616338</v>
+        <v>17.10358682250978</v>
       </c>
       <c r="H21">
-        <v>2.505642214454632</v>
+        <v>2.469902728410442</v>
       </c>
       <c r="I21">
-        <v>3.71071723156123</v>
+        <v>3.643245870293804</v>
       </c>
       <c r="J21">
-        <v>6.815206786989164</v>
+        <v>6.86508171451668</v>
       </c>
       <c r="K21">
-        <v>9.17882169665017</v>
+        <v>9.159104958411431</v>
       </c>
       <c r="L21">
-        <v>5.398750862335496</v>
+        <v>8.955525795209713</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.683808140894334</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.425099054567291</v>
       </c>
       <c r="O21">
-        <v>24.14989285255809</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10.49324834828071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>24.29436529776732</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.15939440939945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.31857819871238</v>
+        <v>26.21890009165428</v>
       </c>
       <c r="C22">
-        <v>19.27328233959194</v>
+        <v>19.36843615815058</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.78886140682667</v>
+        <v>22.01424416406982</v>
       </c>
       <c r="F22">
-        <v>33.47015883401863</v>
+        <v>32.93481234339819</v>
       </c>
       <c r="G22">
-        <v>16.14305764048629</v>
+        <v>18.70834794917294</v>
       </c>
       <c r="H22">
-        <v>2.686711647642456</v>
+        <v>2.644318343739707</v>
       </c>
       <c r="I22">
-        <v>3.816600018371338</v>
+        <v>3.731146030953957</v>
       </c>
       <c r="J22">
-        <v>6.777995526574963</v>
+        <v>6.544894039074648</v>
       </c>
       <c r="K22">
-        <v>8.956969234259926</v>
+        <v>8.909821798349133</v>
       </c>
       <c r="L22">
-        <v>5.442039154055223</v>
+        <v>8.839188759569584</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.516121911934305</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.475770644873452</v>
       </c>
       <c r="O22">
-        <v>24.92920057468087</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10.51572669642258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>25.11373991389779</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>9.993455043580122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.86123733522443</v>
+        <v>25.77360595019944</v>
       </c>
       <c r="C23">
-        <v>18.95836027918599</v>
+        <v>19.08043688541747</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.5003245782039</v>
+        <v>21.66328471270979</v>
       </c>
       <c r="F23">
-        <v>33.06180987620655</v>
+        <v>32.62797441152838</v>
       </c>
       <c r="G23">
-        <v>16.00481446688887</v>
+        <v>17.69752497977647</v>
       </c>
       <c r="H23">
-        <v>2.590569513669796</v>
+        <v>2.552089538763727</v>
       </c>
       <c r="I23">
-        <v>3.757229886530113</v>
+        <v>3.680839714518933</v>
       </c>
       <c r="J23">
-        <v>6.80502448146479</v>
+        <v>6.750651515671606</v>
       </c>
       <c r="K23">
-        <v>9.085038464033552</v>
+        <v>9.055213360236831</v>
       </c>
       <c r="L23">
-        <v>5.418649948751428</v>
+        <v>8.904580923247766</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.62307353987244</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.447624988171603</v>
       </c>
       <c r="O23">
-        <v>24.505288638334</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10.5225052737154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>24.66417922399772</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10.12529161636365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.04459172711329</v>
+        <v>23.99583834424883</v>
       </c>
       <c r="C24">
-        <v>17.78016090433151</v>
+        <v>17.93365940433566</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.38645305830638</v>
+        <v>20.39126523317508</v>
       </c>
       <c r="F24">
-        <v>31.4620916254881</v>
+        <v>31.3040848387043</v>
       </c>
       <c r="G24">
-        <v>15.44301121652124</v>
+        <v>14.94093031766824</v>
       </c>
       <c r="H24">
-        <v>2.218703675297081</v>
+        <v>2.193624368841073</v>
       </c>
       <c r="I24">
-        <v>3.53388224268436</v>
+        <v>3.491206397169686</v>
       </c>
       <c r="J24">
-        <v>6.903890183931279</v>
+        <v>7.50359501008495</v>
       </c>
       <c r="K24">
-        <v>9.560977948166331</v>
+        <v>9.572956763051407</v>
       </c>
       <c r="L24">
-        <v>5.328304697298672</v>
+        <v>9.17791918738437</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.983517786578694</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.344129401729312</v>
       </c>
       <c r="O24">
-        <v>22.85164211407579</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10.53922266825769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>22.93570753089763</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10.46312271238326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.91446687441258</v>
+        <v>21.89145375002392</v>
       </c>
       <c r="C25">
-        <v>16.42457060634075</v>
+        <v>16.46140129575687</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.12071238488805</v>
+        <v>19.10920614536143</v>
       </c>
       <c r="F25">
-        <v>29.69239962726894</v>
+        <v>29.60783183727979</v>
       </c>
       <c r="G25">
-        <v>14.91900855338762</v>
+        <v>14.26009695527123</v>
       </c>
       <c r="H25">
-        <v>1.80076679539036</v>
+        <v>1.78532831561076</v>
       </c>
       <c r="I25">
-        <v>3.286594315398457</v>
+        <v>3.27231569330219</v>
       </c>
       <c r="J25">
-        <v>7.028046375623856</v>
+        <v>7.663591789496582</v>
       </c>
       <c r="K25">
-        <v>10.09068544759478</v>
+        <v>10.08004344464831</v>
       </c>
       <c r="L25">
-        <v>5.225633805031657</v>
+        <v>9.488884315045977</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.364342723510872</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.234921524615327</v>
       </c>
       <c r="O25">
-        <v>20.92860431155576</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10.60307645131885</v>
+        <v>20.98069847706054</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10.58479435178368</v>
       </c>
     </row>
   </sheetData>
